--- a/doc/2.システム設計/01_業務フロー/業務フロー　第5.0版.xlsx
+++ b/doc/2.システム設計/01_業務フロー/業務フロー　第5.0版.xlsx
@@ -1,33 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28410"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kojimadaichi/Documents/GitHub/SSH48/doc/2.システム設計/01_業務フロー/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenya/Documents/GitHub/SSH48/doc/2.システム設計/01_業務フロー/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D572A815-8E0E-CC4D-AD49-66579FF0186A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="10" r:id="rId1"/>
     <sheet name="業務フロー(1)" sheetId="4" r:id="rId2"/>
     <sheet name="業務フロー(2)" sheetId="11" r:id="rId3"/>
     <sheet name="業務フロー(3)" sheetId="12" r:id="rId4"/>
+    <sheet name="業務フロー(4)" sheetId="14" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'業務フロー(1)'!$A$1:$AR$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'業務フロー(2)'!$A$1:$AR$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'業務フロー(3)'!$A$1:$AR$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'業務フロー(4)'!$A$1:$AR$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AC$42</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'業務フロー(1)'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'業務フロー(2)'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'業務フロー(3)'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'業務フロー(4)'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="75">
   <si>
     <t>業務フロー</t>
     <rPh sb="0" eb="2">
@@ -533,15 +537,203 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>温度を上げる</t>
+    <rPh sb="0" eb="2">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>5.「何もしない」が多い場合温度変更中止のメッセージをSlack_Airbo部屋画面に送信する</t>
+    <rPh sb="3" eb="4">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チュウシ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>そのまま</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>温度を下げる</t>
+    <rPh sb="0" eb="2">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2.3.現在の温度をSlack_Airbo部屋画面に送信する</t>
+    <rPh sb="4" eb="6">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2.2.ラズパイの温度変更信号を送信</t>
+    <rPh sb="9" eb="11">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シンゴウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2.1.「1度上げる」「1度下げる」が多い場合投票結果のメッセージをSlack_Airbo部屋画面に送信する</t>
+    <rPh sb="6" eb="7">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>トウヒョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1.制限時間になると投票集計処理を行う</t>
+    <rPh sb="2" eb="4">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウヒョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>田中　奏多</t>
+    <rPh sb="0" eb="2">
+      <t>タナカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>温度変更</t>
+    <rPh sb="0" eb="2">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Rev 2.0</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Rev 3.0</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Rev 5.0</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Rev 4.0</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -799,7 +991,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1007,13 +1199,43 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準_Sheet1" xfId="1"/>
-    <cellStyle name="標準_コピー ～ 種別マスタ項目_詳細設計書_Ver1" xfId="2"/>
-    <cellStyle name="標準_システム管理" xfId="3"/>
-    <cellStyle name="標準_種別マスタ" xfId="4"/>
+    <cellStyle name="標準_Sheet1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_コピー ～ 種別マスタ項目_詳細設計書_Ver1" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_システム管理" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準_種別マスタ" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1048,7 +1270,7 @@
         <xdr:cNvPr id="31" name="AutoShape 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0945A8A2-7AE7-9448-BADC-8988FE30C8F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1199,7 +1421,7 @@
         <xdr:cNvPr id="34" name="直線矢印コネクタ 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9ACB753-1DDF-6747-9E1E-E845DF58EEBC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1252,7 +1474,7 @@
         <xdr:cNvPr id="49" name="AutoShape 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C812DFA9-5A44-F442-9179-A80CFFE5BAFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1340,7 +1562,7 @@
         <xdr:cNvPr id="79" name="直線矢印コネクタ 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40533A3B-4F75-744A-902F-81DFD0CA2D14}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1395,7 +1617,7 @@
         <xdr:cNvPr id="114" name="AutoShape 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37617921-F356-3A46-A459-301C93018760}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000072000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1466,7 +1688,7 @@
         <xdr:cNvPr id="38" name="直線矢印コネクタ 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FE58380-F185-A04A-9844-B71F5B1D71B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1519,7 +1741,7 @@
         <xdr:cNvPr id="62" name="AutoShape 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0288D8D6-1779-DD40-8996-B4975F35AED9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1597,7 +1819,7 @@
         <xdr:cNvPr id="77" name="AutoShape 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90FCE07F-F931-094B-97B8-D77CEB73D839}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1695,7 +1917,7 @@
         <xdr:cNvPr id="78" name="直線矢印コネクタ 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA08579D-B1DE-4942-9A76-13066B3DE85D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1748,7 +1970,7 @@
         <xdr:cNvPr id="83" name="AutoShape 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04DDE74A-315A-8745-A29A-43770094AEFA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000053000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1813,7 +2035,7 @@
         <xdr:cNvPr id="84" name="直線矢印コネクタ 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2B8EEBB-1C2C-764D-BE00-071C7A8F1B9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000054000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1866,7 +2088,7 @@
         <xdr:cNvPr id="87" name="直線矢印コネクタ 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1062866A-B538-344E-89D8-DA345140E785}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000057000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1919,7 +2141,7 @@
         <xdr:cNvPr id="53" name="カギ線コネクタ 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{991A7351-35F9-6444-B7A8-7EE76896C813}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000035000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1974,7 +2196,7 @@
         <xdr:cNvPr id="76" name="直線コネクタ 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1052CCE-02A1-2846-9E90-A0E5DC0D8118}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2026,7 +2248,7 @@
         <xdr:cNvPr id="119" name="AutoShape 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{380732C7-CFB6-C64E-9222-29FBAF8E0CC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000077000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2091,7 +2313,7 @@
         <xdr:cNvPr id="122" name="直線矢印コネクタ 121">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{685BF07F-1BF8-DF4C-B2A0-A281E946AAFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2144,7 +2366,7 @@
         <xdr:cNvPr id="123" name="AutoShape 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DE671D9-0F70-214E-9904-379C4D7B1AD9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2232,7 +2454,7 @@
         <xdr:cNvPr id="125" name="直線矢印コネクタ 124">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34C29803-108C-464C-A713-568385CE469A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2285,7 +2507,7 @@
         <xdr:cNvPr id="126" name="AutoShape 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6913CD5-0F69-344B-BB19-ED858D04682D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00007E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2363,7 +2585,7 @@
         <xdr:cNvPr id="128" name="直線矢印コネクタ 127">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D8822AF-7E01-F846-924B-2533D62AC7C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000080000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2416,7 +2638,7 @@
         <xdr:cNvPr id="129" name="AutoShape 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45B0F51B-D493-5E43-B82E-1D8B192B5D2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000081000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2504,7 +2726,7 @@
         <xdr:cNvPr id="130" name="直線矢印コネクタ 129">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9612323E-49D3-324B-B1CD-BFFCB2F83715}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000082000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2557,7 +2779,7 @@
         <xdr:cNvPr id="133" name="AutoShape 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18667537-CC9B-574C-8141-DDC95CA39C6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000085000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2645,7 +2867,7 @@
         <xdr:cNvPr id="134" name="AutoShape 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09FFDB0B-4793-424F-A65A-92751034E13A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000086000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2723,7 +2945,7 @@
         <xdr:cNvPr id="136" name="直線矢印コネクタ 135">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED3CE56E-E057-BB45-A5E0-F573E8036045}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000088000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2776,7 +2998,7 @@
         <xdr:cNvPr id="140" name="カギ線コネクタ 139">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D55D093D-3A03-5746-926A-2653BF3A13DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00008C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2832,7 +3054,7 @@
         <xdr:cNvPr id="45" name="直線矢印コネクタ 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB5383D3-7E8A-7F45-A8B2-2ADED49EC02C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2885,7 +3107,7 @@
         <xdr:cNvPr id="50" name="直線コネクタ 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1052CCE-02A1-2846-9E90-A0E5DC0D8118}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2932,7 +3154,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線コネクタ 7"/>
+        <xdr:cNvPr id="8" name="直線コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2984,7 +3212,7 @@
         <xdr:cNvPr id="61" name="AutoShape 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0288D8D6-1779-DD40-8996-B4975F35AED9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3062,7 +3290,7 @@
         <xdr:cNvPr id="67" name="AutoShape 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04DDE74A-315A-8745-A29A-43770094AEFA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3127,7 +3355,7 @@
         <xdr:cNvPr id="68" name="直線矢印コネクタ 67">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9ACB753-1DDF-6747-9E1E-E845DF58EEBC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000044000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3182,7 +3410,7 @@
         <xdr:cNvPr id="71" name="直線矢印コネクタ 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40533A3B-4F75-744A-902F-81DFD0CA2D14}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000047000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3235,7 +3463,7 @@
         <xdr:cNvPr id="74" name="AutoShape 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DE671D9-0F70-214E-9904-379C4D7B1AD9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3323,7 +3551,7 @@
         <xdr:cNvPr id="80" name="AutoShape 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6913CD5-0F69-344B-BB19-ED858D04682D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000050000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3401,7 +3629,7 @@
         <xdr:cNvPr id="81" name="直線矢印コネクタ 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1062866A-B538-344E-89D8-DA345140E785}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000051000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3457,7 +3685,7 @@
         <xdr:cNvPr id="47" name="直線矢印コネクタ 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9612323E-49D3-324B-B1CD-BFFCB2F83715}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3512,7 +3740,7 @@
         <xdr:cNvPr id="48" name="AutoShape 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6913CD5-0F69-344B-BB19-ED858D04682D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3590,7 +3818,7 @@
         <xdr:cNvPr id="51" name="AutoShape 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45B0F51B-D493-5E43-B82E-1D8B192B5D2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3678,7 +3906,7 @@
         <xdr:cNvPr id="54" name="AutoShape 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6913CD5-0F69-344B-BB19-ED858D04682D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000036000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3776,7 +4004,7 @@
         <xdr:cNvPr id="55" name="直線矢印コネクタ 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9ACB753-1DDF-6747-9E1E-E845DF58EEBC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000037000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3831,7 +4059,7 @@
         <xdr:cNvPr id="57" name="直線矢印コネクタ 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40533A3B-4F75-744A-902F-81DFD0CA2D14}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3889,7 +4117,7 @@
         <xdr:cNvPr id="4" name="AutoShape 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{110EFBF4-B69C-A347-9BE6-3D87592D0AD9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3977,7 +4205,7 @@
         <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0954AB0E-C8F7-D34D-B8EB-1BA0A07598DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4033,7 +4261,7 @@
         <xdr:cNvPr id="42" name="AutoShape 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0839D32-E066-E747-AF8F-FA2AC2C5DD99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4111,7 +4339,7 @@
         <xdr:cNvPr id="43" name="直線矢印コネクタ 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{710ED4F3-1388-AB41-81ED-C259FAD12978}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4167,7 +4395,7 @@
         <xdr:cNvPr id="48" name="AutoShape 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73254DA5-2944-F94A-AE9B-8D9F9C99A495}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000030000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4250,7 +4478,7 @@
         <xdr:cNvPr id="2" name="AutoShape 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784F27B0-9062-0945-AA86-57D996FABC4E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4338,7 +4566,7 @@
         <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9395352-F696-9B41-A2B6-88D626ADC5DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4394,7 +4622,7 @@
         <xdr:cNvPr id="4" name="AutoShape 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D175C31-4DFB-0040-ABC7-4EF6714B66F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4472,7 +4700,7 @@
         <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{391743FC-544B-2745-94E1-9900919E9CFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4528,7 +4756,7 @@
         <xdr:cNvPr id="6" name="AutoShape 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2226A66D-A377-D543-B5F7-E59B01B0EA58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4586,6 +4814,1446 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>59532</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="フローチャート: 判断 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCCEE0AC-020A-1D46-A880-D5646919D367}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9660732" y="2228850"/>
+          <a:ext cx="3607593" cy="889000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>投票結果</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>35718</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="フローチャート: 表示 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20A534B3-279A-2548-972E-EC575CCBA6A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5772150" y="3757612"/>
+          <a:ext cx="3178968" cy="569119"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDisplay">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Slack_Airbo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>部屋画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>11907</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="フローチャート: 表示 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD4E6577-2F05-5346-91D9-BBFE4F97ECDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9863137" y="3745707"/>
+          <a:ext cx="3190876" cy="592930"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDisplay">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Slack_Airbo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>部屋画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>107157</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>23814</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="フローチャート: 表示 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{917AC781-CF50-CA46-9818-B56E717540B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14508957" y="3757614"/>
+          <a:ext cx="2778917" cy="557211"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDisplay">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Slack_Airbo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>部屋画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>5953</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>11907</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>59532</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="コネクタ: カギ線 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A620168-5C54-EA4F-80C8-9A9AE7CC99CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="1"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="7549753" y="2678907"/>
+          <a:ext cx="2110979" cy="1078705"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>11907</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>125016</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>23814</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="コネクタ: カギ線 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{508FADD8-9F5A-5245-BD9F-967861AD0BEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13268325" y="2678907"/>
+          <a:ext cx="2630091" cy="1078707"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>297657</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>303610</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>11907</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C190F4E4-B175-1E42-A20A-98171FC6B4A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11270457" y="3117850"/>
+          <a:ext cx="5953" cy="627857"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="フローチャート: 処理 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90B545D6-6B48-8D48-B2AB-E746026EFB7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6172199" y="4812506"/>
+          <a:ext cx="2755107" cy="854075"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>温度を下げるメッセージを表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>107155</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="フローチャート: 処理 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{517F3F54-61E6-0D48-A639-93196281EF8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14544674" y="4836318"/>
+          <a:ext cx="2707481" cy="900906"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>温度変更なしメッセージを表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>11907</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>273845</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>11905</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="フローチャート: 処理 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CF6C822-4082-8540-89D1-A5949106B15A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10298907" y="4789486"/>
+          <a:ext cx="2319338" cy="912019"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>温度を上げるメッセージを表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>5953</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>5953</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CDAA64C-2FFC-3240-9D58-DD9D6A94230E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7549753" y="4326731"/>
+          <a:ext cx="0" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>297656</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="フローチャート: 処理 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93128EB4-1CFB-154F-9E2E-99E74FFFDD64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6172199" y="6069012"/>
+          <a:ext cx="2355057" cy="877094"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ラズパイが温度を下げる信号を送信</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>11907</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>297656</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="フローチャート: 処理 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F34C99B5-5750-7D4C-AFFC-424CB8F1217A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10286999" y="6057107"/>
+          <a:ext cx="2355057" cy="842169"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ラズパイが温度を上げる信号を送信</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>303609</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>5953</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0721C9DE-E0E5-E74F-B6D6-0D51D7D57C9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="13" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7161609" y="5666581"/>
+          <a:ext cx="388144" cy="402431"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>297658</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>11905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>303609</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>11907</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B40EBB2B-20E5-B245-961F-DC08E1F0EA9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="14" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11270458" y="5701505"/>
+          <a:ext cx="5951" cy="355602"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>125015</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>125016</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>35718</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FE53002-57AA-D34B-BFBD-E2702928FC60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="15898415" y="4314825"/>
+          <a:ext cx="1" cy="521493"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>297657</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>297658</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA9B106F-46E5-F146-A94E-365A2182C1A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11270457" y="4338637"/>
+          <a:ext cx="1" cy="450849"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>154782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>297656</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="フローチャート: 処理 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{626EE1C9-0BDF-D447-BA43-0691A34D0D92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9886950" y="7800182"/>
+          <a:ext cx="2755106" cy="865187"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>現在の温度表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>291703</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>303609</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>154782</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F47902B-8DD2-A746-B9F8-314705CEDB04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="2"/>
+          <a:endCxn id="19" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11264503" y="6899276"/>
+          <a:ext cx="11906" cy="900906"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>303609</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>11905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="コネクタ: カギ線 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F75A7B-9AE8-1B4F-B9DC-A6D8D97AF4A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="2"/>
+          <a:endCxn id="19" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="7878167" y="6229547"/>
+          <a:ext cx="1292226" cy="2725341"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>107156</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>178594</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="フローチャート: 処理 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55CE2565-ED2D-DB49-94DA-413411827895}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="792956" y="1138237"/>
+          <a:ext cx="3500438" cy="912813"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>投票集計処理</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>178594</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>303610</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="コネクタ: カギ線 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC7A230B-D18F-544D-9293-BC44BF1BFB33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="3"/>
+          <a:endCxn id="2" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4293394" y="1600200"/>
+          <a:ext cx="6983016" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4877,14 +6545,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FQ42"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="4" width="4.1640625" style="1" customWidth="1"/>
     <col min="5" max="6" width="4.1640625" style="21" customWidth="1"/>
@@ -4894,7 +6562,7 @@
     <col min="34" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:173" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:173" ht="14">
       <c r="A1" s="29"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -4925,7 +6593,7 @@
       <c r="AB1" s="30"/>
       <c r="AC1" s="30"/>
     </row>
-    <row r="2" spans="1:173" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:173" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="A2" s="31"/>
       <c r="B2" s="32"/>
       <c r="C2" s="32"/>
@@ -5100,7 +6768,7 @@
       <c r="FP2" s="8"/>
       <c r="FQ2" s="8"/>
     </row>
-    <row r="3" spans="1:173" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:173" ht="12.75" customHeight="1">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -5135,7 +6803,7 @@
       <c r="AB3" s="14"/>
       <c r="AC3" s="15"/>
     </row>
-    <row r="4" spans="1:173" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:173" ht="12.75" customHeight="1">
       <c r="A4" s="13"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -5166,7 +6834,7 @@
       <c r="AB4" s="14"/>
       <c r="AC4" s="15"/>
     </row>
-    <row r="5" spans="1:173" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:173" ht="12.75" customHeight="1">
       <c r="A5" s="13"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -5199,7 +6867,7 @@
       <c r="AB5" s="14"/>
       <c r="AC5" s="15"/>
     </row>
-    <row r="6" spans="1:173" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:173" ht="12.75" customHeight="1">
       <c r="A6" s="13"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -5232,7 +6900,7 @@
       <c r="AB6" s="14"/>
       <c r="AC6" s="15"/>
     </row>
-    <row r="7" spans="1:173" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:173" ht="12.75" customHeight="1">
       <c r="A7" s="13"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -5263,7 +6931,7 @@
       <c r="AB7" s="14"/>
       <c r="AC7" s="15"/>
     </row>
-    <row r="8" spans="1:173" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:173" ht="12.75" customHeight="1">
       <c r="A8" s="13"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -5299,7 +6967,7 @@
       <c r="AA8" s="85"/>
       <c r="AC8" s="15"/>
     </row>
-    <row r="9" spans="1:173" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:173" ht="12.75" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="38" t="s">
         <v>9</v>
@@ -5333,7 +7001,7 @@
       <c r="AA9" s="87"/>
       <c r="AC9" s="15"/>
     </row>
-    <row r="10" spans="1:173" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:173" ht="12.75" customHeight="1">
       <c r="A10" s="13"/>
       <c r="B10" s="70" t="s">
         <v>10</v>
@@ -5367,7 +7035,7 @@
       <c r="AA10" s="89"/>
       <c r="AC10" s="15"/>
     </row>
-    <row r="11" spans="1:173" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:173" ht="12.75" customHeight="1">
       <c r="A11" s="13"/>
       <c r="B11" s="73"/>
       <c r="C11" s="74"/>
@@ -5397,7 +7065,7 @@
       <c r="AA11" s="91"/>
       <c r="AC11" s="15"/>
     </row>
-    <row r="12" spans="1:173" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:173" ht="12.75" customHeight="1">
       <c r="A12" s="13"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -5428,7 +7096,7 @@
       <c r="AB12" s="14"/>
       <c r="AC12" s="15"/>
     </row>
-    <row r="13" spans="1:173" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:173" ht="12.75" customHeight="1">
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -5459,7 +7127,7 @@
       <c r="AB13" s="14"/>
       <c r="AC13" s="15"/>
     </row>
-    <row r="14" spans="1:173" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:173" ht="12.75" customHeight="1">
       <c r="A14" s="13"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -5490,7 +7158,7 @@
       <c r="AB14" s="14"/>
       <c r="AC14" s="15"/>
     </row>
-    <row r="15" spans="1:173" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:173" ht="12.75" customHeight="1">
       <c r="A15" s="13"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -5521,7 +7189,7 @@
       <c r="AB15" s="14"/>
       <c r="AC15" s="15"/>
     </row>
-    <row r="16" spans="1:173" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:173" ht="12.75" customHeight="1">
       <c r="A16" s="13"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -5552,7 +7220,7 @@
       <c r="AB16" s="14"/>
       <c r="AC16" s="15"/>
     </row>
-    <row r="17" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:29" ht="12.75" customHeight="1">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -5583,7 +7251,7 @@
       <c r="AB17" s="14"/>
       <c r="AC17" s="15"/>
     </row>
-    <row r="18" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:29" ht="12.75" customHeight="1">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -5616,7 +7284,7 @@
       <c r="AB18" s="14"/>
       <c r="AC18" s="15"/>
     </row>
-    <row r="19" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:29" ht="12.75" customHeight="1">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -5647,7 +7315,7 @@
       <c r="AB19" s="14"/>
       <c r="AC19" s="15"/>
     </row>
-    <row r="20" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:29" ht="12.75" customHeight="1">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -5678,7 +7346,7 @@
       <c r="AB20" s="14"/>
       <c r="AC20" s="15"/>
     </row>
-    <row r="21" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:29" ht="12.75" customHeight="1">
       <c r="A21" s="13"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -5709,7 +7377,7 @@
       <c r="AB21" s="14"/>
       <c r="AC21" s="15"/>
     </row>
-    <row r="22" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:29" ht="12.75" customHeight="1">
       <c r="A22" s="13"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -5740,7 +7408,7 @@
       <c r="AB22" s="14"/>
       <c r="AC22" s="15"/>
     </row>
-    <row r="23" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:29" ht="12.75" customHeight="1">
       <c r="A23" s="13"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -5771,7 +7439,7 @@
       <c r="AB23" s="14"/>
       <c r="AC23" s="15"/>
     </row>
-    <row r="24" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:29" ht="12.75" customHeight="1">
       <c r="A24" s="13"/>
       <c r="B24" s="41" t="s">
         <v>11</v>
@@ -5804,7 +7472,7 @@
       <c r="AB24" s="14"/>
       <c r="AC24" s="15"/>
     </row>
-    <row r="25" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:29" ht="12.75" customHeight="1">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -5835,7 +7503,7 @@
       <c r="AB25" s="14"/>
       <c r="AC25" s="15"/>
     </row>
-    <row r="26" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:29" ht="12.75" customHeight="1">
       <c r="A26" s="13"/>
       <c r="B26" s="42" t="s">
         <v>12</v>
@@ -5876,7 +7544,7 @@
       <c r="AB26" s="14"/>
       <c r="AC26" s="15"/>
     </row>
-    <row r="27" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:29" ht="12.75" customHeight="1">
       <c r="A27" s="13"/>
       <c r="B27" s="42" t="s">
         <v>21</v>
@@ -5913,9 +7581,11 @@
       <c r="AB27" s="14"/>
       <c r="AC27" s="15"/>
     </row>
-    <row r="28" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:29" ht="12.75" customHeight="1">
       <c r="A28" s="13"/>
-      <c r="B28" s="42"/>
+      <c r="B28" s="42" t="s">
+        <v>71</v>
+      </c>
       <c r="C28" s="43"/>
       <c r="D28" s="43"/>
       <c r="E28" s="43"/>
@@ -5950,9 +7620,11 @@
       <c r="AB28" s="14"/>
       <c r="AC28" s="15"/>
     </row>
-    <row r="29" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:29" ht="12.75" customHeight="1">
       <c r="A29" s="13"/>
-      <c r="B29" s="42"/>
+      <c r="B29" s="42" t="s">
+        <v>72</v>
+      </c>
       <c r="C29" s="43"/>
       <c r="D29" s="43"/>
       <c r="E29" s="43"/>
@@ -5981,9 +7653,11 @@
       <c r="AB29" s="14"/>
       <c r="AC29" s="15"/>
     </row>
-    <row r="30" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:29" ht="12.75" customHeight="1">
       <c r="A30" s="13"/>
-      <c r="B30" s="42"/>
+      <c r="B30" s="42" t="s">
+        <v>74</v>
+      </c>
       <c r="C30" s="43"/>
       <c r="D30" s="43"/>
       <c r="E30" s="43"/>
@@ -6012,16 +7686,20 @@
       <c r="AB30" s="14"/>
       <c r="AC30" s="15"/>
     </row>
-    <row r="31" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:29" ht="12.75" customHeight="1">
       <c r="A31" s="13"/>
-      <c r="B31" s="42"/>
+      <c r="B31" s="42" t="s">
+        <v>73</v>
+      </c>
       <c r="C31" s="43"/>
       <c r="D31" s="43"/>
       <c r="E31" s="43"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="44"/>
+      <c r="F31" s="92">
+        <v>43656</v>
+      </c>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="94"/>
       <c r="J31" s="42"/>
       <c r="K31" s="43"/>
       <c r="L31" s="43"/>
@@ -6043,7 +7721,7 @@
       <c r="AB31" s="14"/>
       <c r="AC31" s="15"/>
     </row>
-    <row r="32" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:29" ht="12.75" customHeight="1">
       <c r="A32" s="13"/>
       <c r="B32" s="42"/>
       <c r="C32" s="43"/>
@@ -6074,7 +7752,7 @@
       <c r="AB32" s="14"/>
       <c r="AC32" s="15"/>
     </row>
-    <row r="33" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:29" ht="12.75" customHeight="1">
       <c r="A33" s="13"/>
       <c r="B33" s="42"/>
       <c r="C33" s="43"/>
@@ -6105,7 +7783,7 @@
       <c r="AB33" s="14"/>
       <c r="AC33" s="15"/>
     </row>
-    <row r="34" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:29" ht="12.75" customHeight="1">
       <c r="A34" s="13"/>
       <c r="B34" s="42"/>
       <c r="C34" s="43"/>
@@ -6136,7 +7814,7 @@
       <c r="AB34" s="14"/>
       <c r="AC34" s="15"/>
     </row>
-    <row r="35" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:29" ht="12.75" customHeight="1">
       <c r="A35" s="13"/>
       <c r="B35" s="42"/>
       <c r="C35" s="43"/>
@@ -6167,7 +7845,7 @@
       <c r="AB35" s="14"/>
       <c r="AC35" s="15"/>
     </row>
-    <row r="36" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:29" ht="12.75" customHeight="1">
       <c r="A36" s="13"/>
       <c r="B36" s="42"/>
       <c r="C36" s="43"/>
@@ -6198,7 +7876,7 @@
       <c r="AB36" s="14"/>
       <c r="AC36" s="15"/>
     </row>
-    <row r="37" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:29" ht="12.75" customHeight="1">
       <c r="A37" s="13"/>
       <c r="B37" s="42"/>
       <c r="C37" s="43"/>
@@ -6229,7 +7907,7 @@
       <c r="AB37" s="14"/>
       <c r="AC37" s="15"/>
     </row>
-    <row r="38" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:29" ht="12.75" customHeight="1">
       <c r="A38" s="13"/>
       <c r="B38" s="42"/>
       <c r="C38" s="43"/>
@@ -6260,7 +7938,7 @@
       <c r="AB38" s="14"/>
       <c r="AC38" s="15"/>
     </row>
-    <row r="39" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:29" ht="12.75" customHeight="1">
       <c r="A39" s="13"/>
       <c r="B39" s="42"/>
       <c r="C39" s="43"/>
@@ -6291,7 +7969,7 @@
       <c r="AB39" s="14"/>
       <c r="AC39" s="15"/>
     </row>
-    <row r="40" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:29" ht="12.75" customHeight="1">
       <c r="A40" s="13"/>
       <c r="B40" s="42"/>
       <c r="C40" s="43"/>
@@ -6322,7 +8000,7 @@
       <c r="AB40" s="14"/>
       <c r="AC40" s="15"/>
     </row>
-    <row r="41" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:29" ht="12.75" customHeight="1">
       <c r="A41" s="13"/>
       <c r="B41" s="42"/>
       <c r="C41" s="43"/>
@@ -6353,7 +8031,7 @@
       <c r="AB41" s="14"/>
       <c r="AC41" s="15"/>
     </row>
-    <row r="42" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:29" ht="12.75" customHeight="1">
       <c r="A42" s="18"/>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
@@ -6385,7 +8063,8 @@
       <c r="AC42" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="F31:I31"/>
     <mergeCell ref="F30:I30"/>
     <mergeCell ref="V3:W3"/>
     <mergeCell ref="X3:AA3"/>
@@ -6417,14 +8096,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:GF64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="137" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="137" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="AO3" sqref="AO3:AR3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="4" width="4.1640625" style="1" customWidth="1"/>
     <col min="5" max="6" width="4.1640625" style="21" customWidth="1"/>
@@ -6434,7 +8113,7 @@
     <col min="49" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:188" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:188" ht="15" customHeight="1">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
@@ -6482,7 +8161,7 @@
       <c r="AQ1" s="51"/>
       <c r="AR1" s="51"/>
     </row>
-    <row r="2" spans="1:188" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:188" ht="14.25" customHeight="1">
       <c r="A2" s="99" t="s">
         <v>1</v>
       </c>
@@ -6538,7 +8217,7 @@
       <c r="AQ2" s="97"/>
       <c r="AR2" s="98"/>
     </row>
-    <row r="3" spans="1:188" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:188" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -6594,7 +8273,7 @@
       <c r="AQ3" s="97"/>
       <c r="AR3" s="98"/>
     </row>
-    <row r="4" spans="1:188" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:188" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="84" t="s">
         <v>5</v>
       </c>
@@ -6790,7 +8469,7 @@
       <c r="GE4" s="8"/>
       <c r="GF4" s="8"/>
     </row>
-    <row r="5" spans="1:188" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:188" ht="12.75" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -6836,7 +8515,7 @@
       <c r="AQ5" s="11"/>
       <c r="AR5" s="12"/>
     </row>
-    <row r="6" spans="1:188" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:188" ht="12.75" customHeight="1">
       <c r="A6" s="13"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -6884,7 +8563,7 @@
       <c r="AQ6" s="14"/>
       <c r="AR6" s="15"/>
     </row>
-    <row r="7" spans="1:188" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:188" ht="12.75" customHeight="1">
       <c r="A7" s="13"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6930,7 +8609,7 @@
       <c r="AQ7" s="14"/>
       <c r="AR7" s="15"/>
     </row>
-    <row r="8" spans="1:188" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:188" ht="12.75" customHeight="1">
       <c r="A8" s="13"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6978,7 +8657,7 @@
       <c r="AQ8" s="14"/>
       <c r="AR8" s="15"/>
     </row>
-    <row r="9" spans="1:188" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:188" ht="12.75" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -7023,7 +8702,7 @@
       <c r="AQ9" s="14"/>
       <c r="AR9" s="15"/>
     </row>
-    <row r="10" spans="1:188" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:188" ht="12.75" customHeight="1">
       <c r="A10" s="13"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -7059,7 +8738,7 @@
       <c r="AQ10" s="14"/>
       <c r="AR10" s="15"/>
     </row>
-    <row r="11" spans="1:188" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:188" ht="12.75" customHeight="1">
       <c r="A11" s="13"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -7094,7 +8773,7 @@
       <c r="AQ11" s="14"/>
       <c r="AR11" s="15"/>
     </row>
-    <row r="12" spans="1:188" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:188" ht="12.75" customHeight="1">
       <c r="A12" s="13"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -7126,7 +8805,7 @@
       <c r="AQ12" s="14"/>
       <c r="AR12" s="15"/>
     </row>
-    <row r="13" spans="1:188" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:188" ht="12.75" customHeight="1">
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -7154,7 +8833,7 @@
       <c r="AQ13" s="14"/>
       <c r="AR13" s="15"/>
     </row>
-    <row r="14" spans="1:188" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:188" ht="12.75" customHeight="1">
       <c r="A14" s="13"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -7201,7 +8880,7 @@
       <c r="AQ14" s="14"/>
       <c r="AR14" s="15"/>
     </row>
-    <row r="15" spans="1:188" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:188" ht="12.75" customHeight="1">
       <c r="A15" s="13"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -7245,7 +8924,7 @@
       <c r="AQ15" s="14"/>
       <c r="AR15" s="15"/>
     </row>
-    <row r="16" spans="1:188" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:188" ht="12.75" customHeight="1">
       <c r="A16" s="13"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -7292,7 +8971,7 @@
       <c r="AQ16" s="14"/>
       <c r="AR16" s="15"/>
     </row>
-    <row r="17" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:44" ht="12.75" customHeight="1">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -7340,7 +9019,7 @@
       <c r="AQ17" s="14"/>
       <c r="AR17" s="15"/>
     </row>
-    <row r="18" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:44" ht="12.75" customHeight="1">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -7388,7 +9067,7 @@
       <c r="AQ18" s="14"/>
       <c r="AR18" s="15"/>
     </row>
-    <row r="19" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:44" ht="12.75" customHeight="1">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -7433,7 +9112,7 @@
       <c r="AQ19" s="14"/>
       <c r="AR19" s="15"/>
     </row>
-    <row r="20" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:44" ht="12.75" customHeight="1">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -7479,7 +9158,7 @@
       <c r="AQ20" s="14"/>
       <c r="AR20" s="15"/>
     </row>
-    <row r="21" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:44" ht="12.75" customHeight="1">
       <c r="A21" s="13"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -7509,7 +9188,7 @@
       <c r="AQ21" s="14"/>
       <c r="AR21" s="15"/>
     </row>
-    <row r="22" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:44" ht="12.75" customHeight="1">
       <c r="A22" s="13"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -7542,7 +9221,7 @@
       <c r="AQ22" s="14"/>
       <c r="AR22" s="15"/>
     </row>
-    <row r="23" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:44" ht="12.75" customHeight="1">
       <c r="A23" s="13"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -7574,7 +9253,7 @@
       <c r="AQ23" s="14"/>
       <c r="AR23" s="15"/>
     </row>
-    <row r="24" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:44" ht="12.75" customHeight="1">
       <c r="A24" s="13"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -7609,7 +9288,7 @@
       <c r="AQ24" s="14"/>
       <c r="AR24" s="15"/>
     </row>
-    <row r="25" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:44" ht="12.75" customHeight="1">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -7644,7 +9323,7 @@
       <c r="AQ25" s="14"/>
       <c r="AR25" s="15"/>
     </row>
-    <row r="26" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:44" ht="12.75" customHeight="1">
       <c r="A26" s="13"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -7679,7 +9358,7 @@
       <c r="AQ26" s="14"/>
       <c r="AR26" s="15"/>
     </row>
-    <row r="27" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:44" ht="12.75" customHeight="1">
       <c r="A27" s="13"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -7724,7 +9403,7 @@
       <c r="AQ27" s="14"/>
       <c r="AR27" s="15"/>
     </row>
-    <row r="28" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:44" ht="12.75" customHeight="1">
       <c r="A28" s="13"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -7772,7 +9451,7 @@
       <c r="AQ28" s="14"/>
       <c r="AR28" s="15"/>
     </row>
-    <row r="29" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:44" ht="12.75" customHeight="1">
       <c r="A29" s="13"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -7820,7 +9499,7 @@
       <c r="AQ29" s="14"/>
       <c r="AR29" s="15"/>
     </row>
-    <row r="30" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:44" ht="12.75" customHeight="1">
       <c r="A30" s="13"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -7866,7 +9545,7 @@
       <c r="AQ30" s="14"/>
       <c r="AR30" s="15"/>
     </row>
-    <row r="31" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:44" ht="12.75" customHeight="1">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -7912,7 +9591,7 @@
       <c r="AQ31" s="14"/>
       <c r="AR31" s="15"/>
     </row>
-    <row r="32" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:44" ht="12.75" customHeight="1">
       <c r="A32" s="13"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -7956,7 +9635,7 @@
       <c r="AQ32" s="14"/>
       <c r="AR32" s="15"/>
     </row>
-    <row r="33" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:44" ht="12.75" customHeight="1">
       <c r="A33" s="13"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -8003,7 +9682,7 @@
       <c r="AQ33" s="14"/>
       <c r="AR33" s="15"/>
     </row>
-    <row r="34" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:44" ht="12.75" customHeight="1">
       <c r="A34" s="13"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -8047,7 +9726,7 @@
       <c r="AQ34" s="14"/>
       <c r="AR34" s="15"/>
     </row>
-    <row r="35" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:44" ht="12.75" customHeight="1">
       <c r="A35" s="13"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -8094,7 +9773,7 @@
       <c r="AQ35" s="14"/>
       <c r="AR35" s="15"/>
     </row>
-    <row r="36" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:44" ht="12.75" customHeight="1">
       <c r="A36" s="13"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -8141,7 +9820,7 @@
       <c r="AQ36" s="14"/>
       <c r="AR36" s="15"/>
     </row>
-    <row r="37" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:44" ht="12.75" customHeight="1">
       <c r="A37" s="13"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -8187,7 +9866,7 @@
       <c r="AQ37" s="14"/>
       <c r="AR37" s="15"/>
     </row>
-    <row r="38" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:44" ht="12.75" customHeight="1">
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -8233,7 +9912,7 @@
       <c r="AQ38" s="14"/>
       <c r="AR38" s="15"/>
     </row>
-    <row r="39" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:44" ht="12.75" customHeight="1">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -8262,7 +9941,7 @@
       <c r="AQ39" s="14"/>
       <c r="AR39" s="15"/>
     </row>
-    <row r="40" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:44" ht="12.75" customHeight="1">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -8292,7 +9971,7 @@
       <c r="AQ40" s="14"/>
       <c r="AR40" s="15"/>
     </row>
-    <row r="41" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:44" ht="12.75" customHeight="1">
       <c r="A41" s="13"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -8321,7 +10000,7 @@
       <c r="AQ41" s="14"/>
       <c r="AR41" s="15"/>
     </row>
-    <row r="42" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:44" ht="12.75" customHeight="1">
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -8350,7 +10029,7 @@
       <c r="AQ42" s="14"/>
       <c r="AR42" s="15"/>
     </row>
-    <row r="43" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:44" ht="12.75" customHeight="1">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -8379,7 +10058,7 @@
       <c r="AQ43" s="14"/>
       <c r="AR43" s="15"/>
     </row>
-    <row r="44" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:44" ht="12.75" customHeight="1">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -8411,7 +10090,7 @@
       <c r="AQ44" s="14"/>
       <c r="AR44" s="15"/>
     </row>
-    <row r="45" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:44" ht="12.75" customHeight="1">
       <c r="A45" s="13"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -8440,97 +10119,97 @@
       <c r="AQ45" s="14"/>
       <c r="AR45" s="15"/>
     </row>
-    <row r="46" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:44" ht="12.75" customHeight="1">
       <c r="H46" s="24"/>
       <c r="AF46" s="17"/>
       <c r="AR46" s="28"/>
     </row>
-    <row r="47" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:44" ht="12.75" customHeight="1">
       <c r="H47" s="24"/>
       <c r="AF47" s="17"/>
       <c r="AR47" s="28"/>
     </row>
-    <row r="48" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:44" ht="12.75" customHeight="1">
       <c r="H48" s="24"/>
       <c r="AF48" s="17"/>
       <c r="AR48" s="28"/>
     </row>
-    <row r="49" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:44" ht="12.75" customHeight="1">
       <c r="H49" s="24"/>
       <c r="AF49" s="17"/>
       <c r="AR49" s="28"/>
     </row>
-    <row r="50" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:44" ht="12.75" customHeight="1">
       <c r="H50" s="24"/>
       <c r="AF50" s="17"/>
       <c r="AR50" s="28"/>
     </row>
-    <row r="51" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:44" ht="12.75" customHeight="1">
       <c r="H51" s="24"/>
       <c r="AF51" s="17"/>
       <c r="AR51" s="28"/>
     </row>
-    <row r="52" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:44" ht="12.75" customHeight="1">
       <c r="H52" s="24"/>
       <c r="AF52" s="17"/>
       <c r="AR52" s="28"/>
     </row>
-    <row r="53" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:44" ht="12.75" customHeight="1">
       <c r="H53" s="24"/>
       <c r="AF53" s="17"/>
       <c r="AR53" s="28"/>
     </row>
-    <row r="54" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:44" ht="12.75" customHeight="1">
       <c r="H54" s="24"/>
       <c r="AF54" s="17"/>
       <c r="AR54" s="28"/>
     </row>
-    <row r="55" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:44" ht="12.75" customHeight="1">
       <c r="H55" s="24"/>
       <c r="AF55" s="17"/>
       <c r="AR55" s="28"/>
     </row>
-    <row r="56" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:44" ht="12.75" customHeight="1">
       <c r="H56" s="24"/>
       <c r="AF56" s="17"/>
       <c r="AR56" s="28"/>
     </row>
-    <row r="57" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:44" ht="12.75" customHeight="1">
       <c r="H57" s="24"/>
       <c r="AF57" s="17"/>
       <c r="AR57" s="28"/>
     </row>
-    <row r="58" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:44" ht="12.75" customHeight="1">
       <c r="H58" s="24"/>
       <c r="AF58" s="17"/>
       <c r="AR58" s="28"/>
     </row>
-    <row r="59" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:44" ht="12.75" customHeight="1">
       <c r="H59" s="24"/>
       <c r="AF59" s="17"/>
       <c r="AR59" s="28"/>
     </row>
-    <row r="60" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:44" ht="12.75" customHeight="1">
       <c r="H60" s="24"/>
       <c r="AF60" s="17"/>
       <c r="AR60" s="28"/>
     </row>
-    <row r="61" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:44" ht="12.75" customHeight="1">
       <c r="H61" s="24"/>
       <c r="AF61" s="17"/>
       <c r="AR61" s="28"/>
     </row>
-    <row r="62" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:44" ht="12.75" customHeight="1">
       <c r="H62" s="24"/>
       <c r="AF62" s="17"/>
       <c r="AR62" s="28"/>
     </row>
-    <row r="63" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:44" ht="12.75" customHeight="1">
       <c r="H63" s="24"/>
       <c r="AF63" s="17"/>
       <c r="AR63" s="28"/>
     </row>
-    <row r="64" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:44" ht="12.75" customHeight="1">
       <c r="A64" s="26"/>
       <c r="B64" s="26"/>
       <c r="C64" s="26"/>
@@ -8599,14 +10278,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:GF63"/>
   <sheetViews>
     <sheetView zoomScale="69" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="AK15" sqref="AK15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="4" width="4.1640625" style="1" customWidth="1"/>
     <col min="5" max="6" width="4.1640625" style="21" customWidth="1"/>
@@ -8616,7 +10295,7 @@
     <col min="49" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:188" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:188" ht="15" customHeight="1">
       <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
@@ -8664,7 +10343,7 @@
       <c r="AQ1" s="51"/>
       <c r="AR1" s="51"/>
     </row>
-    <row r="2" spans="1:188" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:188" ht="14.25" customHeight="1">
       <c r="A2" s="99" t="s">
         <v>1</v>
       </c>
@@ -8720,7 +10399,7 @@
       <c r="AQ2" s="97"/>
       <c r="AR2" s="98"/>
     </row>
-    <row r="3" spans="1:188" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:188" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -8774,7 +10453,7 @@
       <c r="AQ3" s="97"/>
       <c r="AR3" s="98"/>
     </row>
-    <row r="4" spans="1:188" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:188" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="84"/>
       <c r="B4" s="95"/>
       <c r="C4" s="95"/>
@@ -8968,7 +10647,7 @@
       <c r="GE4" s="8"/>
       <c r="GF4" s="8"/>
     </row>
-    <row r="5" spans="1:188" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:188" ht="12.75" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -9016,7 +10695,7 @@
       <c r="AQ5" s="104"/>
       <c r="AR5" s="105"/>
     </row>
-    <row r="6" spans="1:188" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:188" ht="12.75" customHeight="1">
       <c r="A6" s="13"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -9062,7 +10741,7 @@
       <c r="AQ6" s="107"/>
       <c r="AR6" s="108"/>
     </row>
-    <row r="7" spans="1:188" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:188" ht="12.75" customHeight="1">
       <c r="A7" s="13"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -9108,7 +10787,7 @@
       <c r="AQ7" s="107"/>
       <c r="AR7" s="108"/>
     </row>
-    <row r="8" spans="1:188" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:188" ht="12.75" customHeight="1">
       <c r="A8" s="13"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -9152,7 +10831,7 @@
       <c r="AQ8" s="14"/>
       <c r="AR8" s="15"/>
     </row>
-    <row r="9" spans="1:188" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:188" ht="12.75" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -9184,7 +10863,7 @@
       <c r="AQ9" s="14"/>
       <c r="AR9" s="15"/>
     </row>
-    <row r="10" spans="1:188" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:188" ht="12.75" customHeight="1">
       <c r="A10" s="13"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -9216,7 +10895,7 @@
       <c r="AQ10" s="14"/>
       <c r="AR10" s="15"/>
     </row>
-    <row r="11" spans="1:188" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:188" ht="12.75" customHeight="1">
       <c r="A11" s="13"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -9248,7 +10927,7 @@
       <c r="AQ11" s="14"/>
       <c r="AR11" s="15"/>
     </row>
-    <row r="12" spans="1:188" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:188" ht="12.75" customHeight="1">
       <c r="A12" s="13"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -9272,7 +10951,7 @@
       <c r="AQ12" s="14"/>
       <c r="AR12" s="15"/>
     </row>
-    <row r="13" spans="1:188" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:188" ht="12.75" customHeight="1">
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -9316,7 +10995,7 @@
       <c r="AQ13" s="14"/>
       <c r="AR13" s="15"/>
     </row>
-    <row r="14" spans="1:188" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:188" ht="12.75" customHeight="1">
       <c r="A14" s="13"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -9361,7 +11040,7 @@
       <c r="AQ14" s="14"/>
       <c r="AR14" s="15"/>
     </row>
-    <row r="15" spans="1:188" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:188" ht="12.75" customHeight="1">
       <c r="A15" s="13"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -9406,7 +11085,7 @@
       <c r="AQ15" s="14"/>
       <c r="AR15" s="15"/>
     </row>
-    <row r="16" spans="1:188" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:188" ht="12.75" customHeight="1">
       <c r="A16" s="13"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -9452,7 +11131,7 @@
       <c r="AQ16" s="14"/>
       <c r="AR16" s="15"/>
     </row>
-    <row r="17" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:44" ht="12.75" customHeight="1">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -9498,7 +11177,7 @@
       <c r="AQ17" s="14"/>
       <c r="AR17" s="15"/>
     </row>
-    <row r="18" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:44" ht="12.75" customHeight="1">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -9544,7 +11223,7 @@
       <c r="AQ18" s="14"/>
       <c r="AR18" s="15"/>
     </row>
-    <row r="19" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:44" ht="12.75" customHeight="1">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -9588,7 +11267,7 @@
       <c r="AQ19" s="14"/>
       <c r="AR19" s="15"/>
     </row>
-    <row r="20" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:44" ht="12.75" customHeight="1">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -9618,7 +11297,7 @@
       <c r="AQ20" s="14"/>
       <c r="AR20" s="15"/>
     </row>
-    <row r="21" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:44" ht="12.75" customHeight="1">
       <c r="A21" s="13"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -9648,7 +11327,7 @@
       <c r="AQ21" s="14"/>
       <c r="AR21" s="15"/>
     </row>
-    <row r="22" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:44" ht="12.75" customHeight="1">
       <c r="A22" s="13"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -9677,7 +11356,7 @@
       <c r="AQ22" s="14"/>
       <c r="AR22" s="15"/>
     </row>
-    <row r="23" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:44" ht="12.75" customHeight="1">
       <c r="A23" s="13"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -9710,7 +11389,7 @@
       <c r="AQ23" s="14"/>
       <c r="AR23" s="15"/>
     </row>
-    <row r="24" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:44" ht="12.75" customHeight="1">
       <c r="A24" s="13"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -9743,7 +11422,7 @@
       <c r="AQ24" s="14"/>
       <c r="AR24" s="15"/>
     </row>
-    <row r="25" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:44" ht="12.75" customHeight="1">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -9776,7 +11455,7 @@
       <c r="AQ25" s="14"/>
       <c r="AR25" s="15"/>
     </row>
-    <row r="26" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:44" ht="12.75" customHeight="1">
       <c r="A26" s="13"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -9822,7 +11501,7 @@
       <c r="AQ26" s="14"/>
       <c r="AR26" s="15"/>
     </row>
-    <row r="27" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:44" ht="12.75" customHeight="1">
       <c r="A27" s="13"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -9868,7 +11547,7 @@
       <c r="AQ27" s="14"/>
       <c r="AR27" s="15"/>
     </row>
-    <row r="28" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:44" ht="12.75" customHeight="1">
       <c r="A28" s="13"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -9914,7 +11593,7 @@
       <c r="AQ28" s="14"/>
       <c r="AR28" s="15"/>
     </row>
-    <row r="29" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:44" ht="12.75" customHeight="1">
       <c r="A29" s="13"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -9960,7 +11639,7 @@
       <c r="AQ29" s="14"/>
       <c r="AR29" s="15"/>
     </row>
-    <row r="30" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:44" ht="12.75" customHeight="1">
       <c r="A30" s="13"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -10006,7 +11685,7 @@
       <c r="AQ30" s="14"/>
       <c r="AR30" s="15"/>
     </row>
-    <row r="31" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:44" ht="12.75" customHeight="1">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -10052,7 +11731,7 @@
       <c r="AQ31" s="14"/>
       <c r="AR31" s="15"/>
     </row>
-    <row r="32" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:44" ht="12.75" customHeight="1">
       <c r="A32" s="13"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -10098,7 +11777,7 @@
       <c r="AQ32" s="14"/>
       <c r="AR32" s="15"/>
     </row>
-    <row r="33" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:44" ht="12.75" customHeight="1">
       <c r="A33" s="13"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -10143,7 +11822,7 @@
       <c r="AQ33" s="14"/>
       <c r="AR33" s="15"/>
     </row>
-    <row r="34" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:44" ht="12.75" customHeight="1">
       <c r="A34" s="13"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -10188,7 +11867,7 @@
       <c r="AQ34" s="14"/>
       <c r="AR34" s="15"/>
     </row>
-    <row r="35" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:44" ht="12.75" customHeight="1">
       <c r="A35" s="13"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -10234,7 +11913,7 @@
       <c r="AQ35" s="14"/>
       <c r="AR35" s="15"/>
     </row>
-    <row r="36" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:44" ht="12.75" customHeight="1">
       <c r="A36" s="13"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -10280,7 +11959,7 @@
       <c r="AQ36" s="14"/>
       <c r="AR36" s="15"/>
     </row>
-    <row r="37" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:44" ht="12.75" customHeight="1">
       <c r="A37" s="13"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -10326,7 +12005,7 @@
       <c r="AQ37" s="14"/>
       <c r="AR37" s="15"/>
     </row>
-    <row r="38" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:44" ht="12.75" customHeight="1">
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -10355,7 +12034,7 @@
       <c r="AQ38" s="14"/>
       <c r="AR38" s="15"/>
     </row>
-    <row r="39" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:44" ht="12.75" customHeight="1">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -10385,7 +12064,7 @@
       <c r="AQ39" s="14"/>
       <c r="AR39" s="15"/>
     </row>
-    <row r="40" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:44" ht="12.75" customHeight="1">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -10414,7 +12093,7 @@
       <c r="AQ40" s="14"/>
       <c r="AR40" s="15"/>
     </row>
-    <row r="41" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:44" ht="12.75" customHeight="1">
       <c r="A41" s="13"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -10443,7 +12122,7 @@
       <c r="AQ41" s="14"/>
       <c r="AR41" s="15"/>
     </row>
-    <row r="42" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:44" ht="12.75" customHeight="1">
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -10472,7 +12151,7 @@
       <c r="AQ42" s="14"/>
       <c r="AR42" s="15"/>
     </row>
-    <row r="43" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:44" ht="12.75" customHeight="1">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -10501,7 +12180,7 @@
       <c r="AQ43" s="14"/>
       <c r="AR43" s="15"/>
     </row>
-    <row r="44" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:44" ht="12.75" customHeight="1">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -10530,97 +12209,97 @@
       <c r="AQ44" s="14"/>
       <c r="AR44" s="15"/>
     </row>
-    <row r="45" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:44" ht="12.75" customHeight="1">
       <c r="H45" s="24"/>
       <c r="AF45" s="17"/>
       <c r="AR45" s="28"/>
     </row>
-    <row r="46" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:44" ht="12.75" customHeight="1">
       <c r="H46" s="24"/>
       <c r="AF46" s="17"/>
       <c r="AR46" s="28"/>
     </row>
-    <row r="47" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:44" ht="12.75" customHeight="1">
       <c r="H47" s="24"/>
       <c r="AF47" s="17"/>
       <c r="AR47" s="28"/>
     </row>
-    <row r="48" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:44" ht="12.75" customHeight="1">
       <c r="H48" s="24"/>
       <c r="AF48" s="17"/>
       <c r="AR48" s="28"/>
     </row>
-    <row r="49" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:44" ht="12.75" customHeight="1">
       <c r="H49" s="24"/>
       <c r="AF49" s="17"/>
       <c r="AR49" s="28"/>
     </row>
-    <row r="50" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:44" ht="12.75" customHeight="1">
       <c r="H50" s="24"/>
       <c r="AF50" s="17"/>
       <c r="AR50" s="28"/>
     </row>
-    <row r="51" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:44" ht="12.75" customHeight="1">
       <c r="H51" s="24"/>
       <c r="AF51" s="17"/>
       <c r="AR51" s="28"/>
     </row>
-    <row r="52" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:44" ht="12.75" customHeight="1">
       <c r="H52" s="24"/>
       <c r="AF52" s="17"/>
       <c r="AR52" s="28"/>
     </row>
-    <row r="53" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:44" ht="12.75" customHeight="1">
       <c r="H53" s="24"/>
       <c r="AF53" s="17"/>
       <c r="AR53" s="28"/>
     </row>
-    <row r="54" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:44" ht="12.75" customHeight="1">
       <c r="H54" s="24"/>
       <c r="AF54" s="17"/>
       <c r="AR54" s="28"/>
     </row>
-    <row r="55" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:44" ht="12.75" customHeight="1">
       <c r="H55" s="24"/>
       <c r="AF55" s="17"/>
       <c r="AR55" s="28"/>
     </row>
-    <row r="56" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:44" ht="12.75" customHeight="1">
       <c r="H56" s="24"/>
       <c r="AF56" s="17"/>
       <c r="AR56" s="28"/>
     </row>
-    <row r="57" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:44" ht="12.75" customHeight="1">
       <c r="H57" s="24"/>
       <c r="AF57" s="17"/>
       <c r="AR57" s="28"/>
     </row>
-    <row r="58" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:44" ht="12.75" customHeight="1">
       <c r="H58" s="24"/>
       <c r="AF58" s="17"/>
       <c r="AR58" s="28"/>
     </row>
-    <row r="59" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:44" ht="12.75" customHeight="1">
       <c r="H59" s="24"/>
       <c r="AF59" s="17"/>
       <c r="AR59" s="28"/>
     </row>
-    <row r="60" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:44" ht="12.75" customHeight="1">
       <c r="H60" s="24"/>
       <c r="AF60" s="17"/>
       <c r="AR60" s="28"/>
     </row>
-    <row r="61" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:44" ht="12.75" customHeight="1">
       <c r="H61" s="24"/>
       <c r="AF61" s="17"/>
       <c r="AR61" s="28"/>
     </row>
-    <row r="62" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:44" ht="12.75" customHeight="1">
       <c r="H62" s="24"/>
       <c r="AF62" s="17"/>
       <c r="AR62" s="28"/>
     </row>
-    <row r="63" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:44" ht="12.75" customHeight="1">
       <c r="A63" s="26"/>
       <c r="B63" s="26"/>
       <c r="C63" s="26"/>
@@ -10690,14 +12369,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:GF63"/>
   <sheetViews>
     <sheetView zoomScale="69" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="AG5" sqref="AG5:AR7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="4" width="4.1640625" style="1" customWidth="1"/>
     <col min="5" max="6" width="4.1640625" style="21" customWidth="1"/>
@@ -10707,7 +12386,7 @@
     <col min="49" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:188" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:188" ht="15" customHeight="1">
       <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
@@ -10755,7 +12434,7 @@
       <c r="AQ1" s="51"/>
       <c r="AR1" s="51"/>
     </row>
-    <row r="2" spans="1:188" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:188" ht="14.25" customHeight="1">
       <c r="A2" s="99" t="s">
         <v>1</v>
       </c>
@@ -10811,7 +12490,7 @@
       <c r="AQ2" s="97"/>
       <c r="AR2" s="98"/>
     </row>
-    <row r="3" spans="1:188" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:188" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -10865,7 +12544,7 @@
       <c r="AQ3" s="97"/>
       <c r="AR3" s="98"/>
     </row>
-    <row r="4" spans="1:188" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:188" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="84"/>
       <c r="B4" s="95"/>
       <c r="C4" s="95"/>
@@ -11059,7 +12738,7 @@
       <c r="GE4" s="8"/>
       <c r="GF4" s="8"/>
     </row>
-    <row r="5" spans="1:188" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:188" ht="12.75" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -11107,7 +12786,7 @@
       <c r="AQ5" s="104"/>
       <c r="AR5" s="105"/>
     </row>
-    <row r="6" spans="1:188" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:188" ht="12.75" customHeight="1">
       <c r="A6" s="13"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -11153,7 +12832,7 @@
       <c r="AQ6" s="107"/>
       <c r="AR6" s="108"/>
     </row>
-    <row r="7" spans="1:188" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:188" ht="12.75" customHeight="1">
       <c r="A7" s="13"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -11199,7 +12878,7 @@
       <c r="AQ7" s="107"/>
       <c r="AR7" s="108"/>
     </row>
-    <row r="8" spans="1:188" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:188" ht="12.75" customHeight="1">
       <c r="A8" s="13"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -11243,7 +12922,7 @@
       <c r="AQ8" s="14"/>
       <c r="AR8" s="15"/>
     </row>
-    <row r="9" spans="1:188" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:188" ht="12.75" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -11275,7 +12954,7 @@
       <c r="AQ9" s="14"/>
       <c r="AR9" s="15"/>
     </row>
-    <row r="10" spans="1:188" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:188" ht="12.75" customHeight="1">
       <c r="A10" s="13"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -11307,7 +12986,7 @@
       <c r="AQ10" s="14"/>
       <c r="AR10" s="15"/>
     </row>
-    <row r="11" spans="1:188" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:188" ht="12.75" customHeight="1">
       <c r="A11" s="13"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -11339,7 +13018,7 @@
       <c r="AQ11" s="14"/>
       <c r="AR11" s="15"/>
     </row>
-    <row r="12" spans="1:188" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:188" ht="12.75" customHeight="1">
       <c r="A12" s="13"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -11363,7 +13042,7 @@
       <c r="AQ12" s="14"/>
       <c r="AR12" s="15"/>
     </row>
-    <row r="13" spans="1:188" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:188" ht="12.75" customHeight="1">
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -11407,7 +13086,7 @@
       <c r="AQ13" s="14"/>
       <c r="AR13" s="15"/>
     </row>
-    <row r="14" spans="1:188" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:188" ht="12.75" customHeight="1">
       <c r="A14" s="13"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -11452,7 +13131,7 @@
       <c r="AQ14" s="14"/>
       <c r="AR14" s="15"/>
     </row>
-    <row r="15" spans="1:188" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:188" ht="12.75" customHeight="1">
       <c r="A15" s="13"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -11497,7 +13176,7 @@
       <c r="AQ15" s="14"/>
       <c r="AR15" s="15"/>
     </row>
-    <row r="16" spans="1:188" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:188" ht="12.75" customHeight="1">
       <c r="A16" s="13"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -11543,7 +13222,7 @@
       <c r="AQ16" s="14"/>
       <c r="AR16" s="15"/>
     </row>
-    <row r="17" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:44" ht="12.75" customHeight="1">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -11589,7 +13268,7 @@
       <c r="AQ17" s="14"/>
       <c r="AR17" s="15"/>
     </row>
-    <row r="18" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:44" ht="12.75" customHeight="1">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -11635,7 +13314,7 @@
       <c r="AQ18" s="14"/>
       <c r="AR18" s="15"/>
     </row>
-    <row r="19" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:44" ht="12.75" customHeight="1">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -11679,7 +13358,7 @@
       <c r="AQ19" s="14"/>
       <c r="AR19" s="15"/>
     </row>
-    <row r="20" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:44" ht="12.75" customHeight="1">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -11709,7 +13388,7 @@
       <c r="AQ20" s="14"/>
       <c r="AR20" s="15"/>
     </row>
-    <row r="21" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:44" ht="12.75" customHeight="1">
       <c r="A21" s="13"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -11739,7 +13418,7 @@
       <c r="AQ21" s="14"/>
       <c r="AR21" s="15"/>
     </row>
-    <row r="22" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:44" ht="12.75" customHeight="1">
       <c r="A22" s="13"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -11768,7 +13447,7 @@
       <c r="AQ22" s="14"/>
       <c r="AR22" s="15"/>
     </row>
-    <row r="23" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:44" ht="12.75" customHeight="1">
       <c r="A23" s="13"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -11801,7 +13480,7 @@
       <c r="AQ23" s="14"/>
       <c r="AR23" s="15"/>
     </row>
-    <row r="24" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:44" ht="12.75" customHeight="1">
       <c r="A24" s="13"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -11834,7 +13513,7 @@
       <c r="AQ24" s="14"/>
       <c r="AR24" s="15"/>
     </row>
-    <row r="25" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:44" ht="12.75" customHeight="1">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -11867,7 +13546,7 @@
       <c r="AQ25" s="14"/>
       <c r="AR25" s="15"/>
     </row>
-    <row r="26" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:44" ht="12.75" customHeight="1">
       <c r="A26" s="13"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -11913,7 +13592,7 @@
       <c r="AQ26" s="14"/>
       <c r="AR26" s="15"/>
     </row>
-    <row r="27" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:44" ht="12.75" customHeight="1">
       <c r="A27" s="13"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -11959,7 +13638,7 @@
       <c r="AQ27" s="14"/>
       <c r="AR27" s="15"/>
     </row>
-    <row r="28" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:44" ht="12.75" customHeight="1">
       <c r="A28" s="13"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -12005,7 +13684,7 @@
       <c r="AQ28" s="14"/>
       <c r="AR28" s="15"/>
     </row>
-    <row r="29" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:44" ht="12.75" customHeight="1">
       <c r="A29" s="13"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -12051,7 +13730,7 @@
       <c r="AQ29" s="14"/>
       <c r="AR29" s="15"/>
     </row>
-    <row r="30" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:44" ht="12.75" customHeight="1">
       <c r="A30" s="13"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -12097,7 +13776,7 @@
       <c r="AQ30" s="14"/>
       <c r="AR30" s="15"/>
     </row>
-    <row r="31" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:44" ht="12.75" customHeight="1">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -12143,7 +13822,7 @@
       <c r="AQ31" s="14"/>
       <c r="AR31" s="15"/>
     </row>
-    <row r="32" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:44" ht="12.75" customHeight="1">
       <c r="A32" s="13"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -12189,7 +13868,7 @@
       <c r="AQ32" s="14"/>
       <c r="AR32" s="15"/>
     </row>
-    <row r="33" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:44" ht="12.75" customHeight="1">
       <c r="A33" s="13"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -12234,7 +13913,7 @@
       <c r="AQ33" s="14"/>
       <c r="AR33" s="15"/>
     </row>
-    <row r="34" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:44" ht="12.75" customHeight="1">
       <c r="A34" s="13"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -12279,7 +13958,7 @@
       <c r="AQ34" s="14"/>
       <c r="AR34" s="15"/>
     </row>
-    <row r="35" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:44" ht="12.75" customHeight="1">
       <c r="A35" s="13"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -12325,7 +14004,7 @@
       <c r="AQ35" s="14"/>
       <c r="AR35" s="15"/>
     </row>
-    <row r="36" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:44" ht="12.75" customHeight="1">
       <c r="A36" s="13"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -12371,7 +14050,7 @@
       <c r="AQ36" s="14"/>
       <c r="AR36" s="15"/>
     </row>
-    <row r="37" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:44" ht="12.75" customHeight="1">
       <c r="A37" s="13"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -12417,7 +14096,7 @@
       <c r="AQ37" s="14"/>
       <c r="AR37" s="15"/>
     </row>
-    <row r="38" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:44" ht="12.75" customHeight="1">
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -12446,7 +14125,7 @@
       <c r="AQ38" s="14"/>
       <c r="AR38" s="15"/>
     </row>
-    <row r="39" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:44" ht="12.75" customHeight="1">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -12476,7 +14155,7 @@
       <c r="AQ39" s="14"/>
       <c r="AR39" s="15"/>
     </row>
-    <row r="40" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:44" ht="12.75" customHeight="1">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -12505,7 +14184,7 @@
       <c r="AQ40" s="14"/>
       <c r="AR40" s="15"/>
     </row>
-    <row r="41" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:44" ht="12.75" customHeight="1">
       <c r="A41" s="13"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -12534,7 +14213,7 @@
       <c r="AQ41" s="14"/>
       <c r="AR41" s="15"/>
     </row>
-    <row r="42" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:44" ht="12.75" customHeight="1">
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -12563,7 +14242,7 @@
       <c r="AQ42" s="14"/>
       <c r="AR42" s="15"/>
     </row>
-    <row r="43" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:44" ht="12.75" customHeight="1">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -12592,7 +14271,7 @@
       <c r="AQ43" s="14"/>
       <c r="AR43" s="15"/>
     </row>
-    <row r="44" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:44" ht="12.75" customHeight="1">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -12621,97 +14300,97 @@
       <c r="AQ44" s="14"/>
       <c r="AR44" s="15"/>
     </row>
-    <row r="45" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:44" ht="12.75" customHeight="1">
       <c r="H45" s="24"/>
       <c r="AF45" s="17"/>
       <c r="AR45" s="28"/>
     </row>
-    <row r="46" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:44" ht="12.75" customHeight="1">
       <c r="H46" s="24"/>
       <c r="AF46" s="17"/>
       <c r="AR46" s="28"/>
     </row>
-    <row r="47" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:44" ht="12.75" customHeight="1">
       <c r="H47" s="24"/>
       <c r="AF47" s="17"/>
       <c r="AR47" s="28"/>
     </row>
-    <row r="48" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:44" ht="12.75" customHeight="1">
       <c r="H48" s="24"/>
       <c r="AF48" s="17"/>
       <c r="AR48" s="28"/>
     </row>
-    <row r="49" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:44" ht="12.75" customHeight="1">
       <c r="H49" s="24"/>
       <c r="AF49" s="17"/>
       <c r="AR49" s="28"/>
     </row>
-    <row r="50" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:44" ht="12.75" customHeight="1">
       <c r="H50" s="24"/>
       <c r="AF50" s="17"/>
       <c r="AR50" s="28"/>
     </row>
-    <row r="51" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:44" ht="12.75" customHeight="1">
       <c r="H51" s="24"/>
       <c r="AF51" s="17"/>
       <c r="AR51" s="28"/>
     </row>
-    <row r="52" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:44" ht="12.75" customHeight="1">
       <c r="H52" s="24"/>
       <c r="AF52" s="17"/>
       <c r="AR52" s="28"/>
     </row>
-    <row r="53" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:44" ht="12.75" customHeight="1">
       <c r="H53" s="24"/>
       <c r="AF53" s="17"/>
       <c r="AR53" s="28"/>
     </row>
-    <row r="54" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:44" ht="12.75" customHeight="1">
       <c r="H54" s="24"/>
       <c r="AF54" s="17"/>
       <c r="AR54" s="28"/>
     </row>
-    <row r="55" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:44" ht="12.75" customHeight="1">
       <c r="H55" s="24"/>
       <c r="AF55" s="17"/>
       <c r="AR55" s="28"/>
     </row>
-    <row r="56" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:44" ht="12.75" customHeight="1">
       <c r="H56" s="24"/>
       <c r="AF56" s="17"/>
       <c r="AR56" s="28"/>
     </row>
-    <row r="57" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:44" ht="12.75" customHeight="1">
       <c r="H57" s="24"/>
       <c r="AF57" s="17"/>
       <c r="AR57" s="28"/>
     </row>
-    <row r="58" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:44" ht="12.75" customHeight="1">
       <c r="H58" s="24"/>
       <c r="AF58" s="17"/>
       <c r="AR58" s="28"/>
     </row>
-    <row r="59" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:44" ht="12.75" customHeight="1">
       <c r="H59" s="24"/>
       <c r="AF59" s="17"/>
       <c r="AR59" s="28"/>
     </row>
-    <row r="60" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:44" ht="12.75" customHeight="1">
       <c r="H60" s="24"/>
       <c r="AF60" s="17"/>
       <c r="AR60" s="28"/>
     </row>
-    <row r="61" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:44" ht="12.75" customHeight="1">
       <c r="H61" s="24"/>
       <c r="AF61" s="17"/>
       <c r="AR61" s="28"/>
     </row>
-    <row r="62" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:44" ht="12.75" customHeight="1">
       <c r="H62" s="24"/>
       <c r="AF62" s="17"/>
       <c r="AR62" s="28"/>
     </row>
-    <row r="63" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:44" ht="12.75" customHeight="1">
       <c r="A63" s="26"/>
       <c r="B63" s="26"/>
       <c r="C63" s="26"/>
@@ -12778,4 +14457,2132 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A848387-4BD2-5541-93F7-8F112F729E53}">
+  <dimension ref="A1:GF63"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="AU19" sqref="AU19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="4" width="4.1640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.1640625" style="21" customWidth="1"/>
+    <col min="7" max="41" width="4.1640625" style="1" customWidth="1"/>
+    <col min="42" max="44" width="4.1640625" style="22" customWidth="1"/>
+    <col min="45" max="48" width="4" style="1" customWidth="1"/>
+    <col min="49" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:188" ht="15" customHeight="1">
+      <c r="A1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="58"/>
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="58"/>
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="51"/>
+      <c r="AP1" s="51"/>
+      <c r="AQ1" s="51"/>
+      <c r="AR1" s="51"/>
+    </row>
+    <row r="2" spans="1:188" ht="14.25" customHeight="1">
+      <c r="A2" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="99" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="100"/>
+      <c r="Z2" s="100"/>
+      <c r="AA2" s="100"/>
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="100"/>
+      <c r="AD2" s="100"/>
+      <c r="AE2" s="100"/>
+      <c r="AF2" s="100"/>
+      <c r="AG2" s="100"/>
+      <c r="AH2" s="100"/>
+      <c r="AI2" s="100"/>
+      <c r="AJ2" s="101"/>
+      <c r="AK2" s="99" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL2" s="100"/>
+      <c r="AM2" s="100"/>
+      <c r="AN2" s="101"/>
+      <c r="AO2" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP2" s="97"/>
+      <c r="AQ2" s="97"/>
+      <c r="AR2" s="98"/>
+    </row>
+    <row r="3" spans="1:188" ht="14.25" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="96" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL3" s="97"/>
+      <c r="AM3" s="97"/>
+      <c r="AN3" s="98"/>
+      <c r="AO3" s="96" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP3" s="97"/>
+      <c r="AQ3" s="97"/>
+      <c r="AR3" s="98"/>
+    </row>
+    <row r="4" spans="1:188" s="9" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="84"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="95"/>
+      <c r="X4" s="95"/>
+      <c r="Y4" s="95"/>
+      <c r="Z4" s="95"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="95"/>
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="85"/>
+      <c r="AG4" s="95" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH4" s="95"/>
+      <c r="AI4" s="95"/>
+      <c r="AJ4" s="95"/>
+      <c r="AK4" s="95"/>
+      <c r="AL4" s="95"/>
+      <c r="AM4" s="95"/>
+      <c r="AN4" s="95"/>
+      <c r="AO4" s="102"/>
+      <c r="AP4" s="102"/>
+      <c r="AQ4" s="102"/>
+      <c r="AR4" s="91"/>
+      <c r="AS4" s="7"/>
+      <c r="AT4" s="8"/>
+      <c r="AU4" s="8"/>
+      <c r="AV4" s="8"/>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="8"/>
+      <c r="AY4" s="8"/>
+      <c r="AZ4" s="8"/>
+      <c r="BA4" s="8"/>
+      <c r="BB4" s="8"/>
+      <c r="BC4" s="8"/>
+      <c r="BD4" s="8"/>
+      <c r="BE4" s="8"/>
+      <c r="BF4" s="8"/>
+      <c r="BG4" s="8"/>
+      <c r="BH4" s="8"/>
+      <c r="BI4" s="8"/>
+      <c r="BJ4" s="8"/>
+      <c r="BK4" s="8"/>
+      <c r="BL4" s="8"/>
+      <c r="BM4" s="8"/>
+      <c r="BN4" s="8"/>
+      <c r="BO4" s="8"/>
+      <c r="BP4" s="8"/>
+      <c r="BQ4" s="8"/>
+      <c r="BR4" s="8"/>
+      <c r="BS4" s="8"/>
+      <c r="BT4" s="8"/>
+      <c r="BU4" s="8"/>
+      <c r="BV4" s="8"/>
+      <c r="BW4" s="8"/>
+      <c r="BX4" s="8"/>
+      <c r="BY4" s="8"/>
+      <c r="BZ4" s="8"/>
+      <c r="CA4" s="8"/>
+      <c r="CB4" s="8"/>
+      <c r="CC4" s="8"/>
+      <c r="CD4" s="8"/>
+      <c r="CE4" s="8"/>
+      <c r="CF4" s="8"/>
+      <c r="CG4" s="8"/>
+      <c r="CH4" s="8"/>
+      <c r="CI4" s="8"/>
+      <c r="CJ4" s="8"/>
+      <c r="CK4" s="8"/>
+      <c r="CL4" s="8"/>
+      <c r="CM4" s="8"/>
+      <c r="CN4" s="8"/>
+      <c r="CO4" s="8"/>
+      <c r="CP4" s="8"/>
+      <c r="CQ4" s="8"/>
+      <c r="CR4" s="8"/>
+      <c r="CS4" s="8"/>
+      <c r="CT4" s="8"/>
+      <c r="CU4" s="8"/>
+      <c r="CV4" s="8"/>
+      <c r="CW4" s="8"/>
+      <c r="CX4" s="8"/>
+      <c r="CY4" s="8"/>
+      <c r="CZ4" s="8"/>
+      <c r="DA4" s="8"/>
+      <c r="DB4" s="8"/>
+      <c r="DC4" s="8"/>
+      <c r="DD4" s="8"/>
+      <c r="DE4" s="8"/>
+      <c r="DF4" s="8"/>
+      <c r="DG4" s="8"/>
+      <c r="DH4" s="8"/>
+      <c r="DI4" s="8"/>
+      <c r="DJ4" s="8"/>
+      <c r="DK4" s="8"/>
+      <c r="DL4" s="8"/>
+      <c r="DM4" s="8"/>
+      <c r="DN4" s="8"/>
+      <c r="DO4" s="8"/>
+      <c r="DP4" s="8"/>
+      <c r="DQ4" s="8"/>
+      <c r="DR4" s="8"/>
+      <c r="DS4" s="8"/>
+      <c r="DT4" s="8"/>
+      <c r="DU4" s="8"/>
+      <c r="DV4" s="8"/>
+      <c r="DW4" s="8"/>
+      <c r="DX4" s="8"/>
+      <c r="DY4" s="8"/>
+      <c r="DZ4" s="8"/>
+      <c r="EA4" s="8"/>
+      <c r="EB4" s="8"/>
+      <c r="EC4" s="8"/>
+      <c r="ED4" s="8"/>
+      <c r="EE4" s="8"/>
+      <c r="EF4" s="8"/>
+      <c r="EG4" s="8"/>
+      <c r="EH4" s="8"/>
+      <c r="EI4" s="8"/>
+      <c r="EJ4" s="8"/>
+      <c r="EK4" s="8"/>
+      <c r="EL4" s="8"/>
+      <c r="EM4" s="8"/>
+      <c r="EN4" s="8"/>
+      <c r="EO4" s="8"/>
+      <c r="EP4" s="8"/>
+      <c r="EQ4" s="8"/>
+      <c r="ER4" s="8"/>
+      <c r="ES4" s="8"/>
+      <c r="ET4" s="8"/>
+      <c r="EU4" s="8"/>
+      <c r="EV4" s="8"/>
+      <c r="EW4" s="8"/>
+      <c r="EX4" s="8"/>
+      <c r="EY4" s="8"/>
+      <c r="EZ4" s="8"/>
+      <c r="FA4" s="8"/>
+      <c r="FB4" s="8"/>
+      <c r="FC4" s="8"/>
+      <c r="FD4" s="8"/>
+      <c r="FE4" s="8"/>
+      <c r="FF4" s="8"/>
+      <c r="FG4" s="8"/>
+      <c r="FH4" s="8"/>
+      <c r="FI4" s="8"/>
+      <c r="FJ4" s="8"/>
+      <c r="FK4" s="8"/>
+      <c r="FL4" s="8"/>
+      <c r="FM4" s="8"/>
+      <c r="FN4" s="8"/>
+      <c r="FO4" s="8"/>
+      <c r="FP4" s="8"/>
+      <c r="FQ4" s="8"/>
+      <c r="FR4" s="8"/>
+      <c r="FS4" s="8"/>
+      <c r="FT4" s="8"/>
+      <c r="FU4" s="8"/>
+      <c r="FV4" s="8"/>
+      <c r="FW4" s="8"/>
+      <c r="FX4" s="8"/>
+      <c r="FY4" s="8"/>
+      <c r="FZ4" s="8"/>
+      <c r="GA4" s="8"/>
+      <c r="GB4" s="8"/>
+      <c r="GC4" s="8"/>
+      <c r="GD4" s="8"/>
+      <c r="GE4" s="8"/>
+      <c r="GF4" s="8"/>
+    </row>
+    <row r="5" spans="1:188" ht="12.75" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="103" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH5" s="104"/>
+      <c r="AI5" s="104"/>
+      <c r="AJ5" s="104"/>
+      <c r="AK5" s="104"/>
+      <c r="AL5" s="104"/>
+      <c r="AM5" s="104"/>
+      <c r="AN5" s="104"/>
+      <c r="AO5" s="104"/>
+      <c r="AP5" s="104"/>
+      <c r="AQ5" s="104"/>
+      <c r="AR5" s="105"/>
+    </row>
+    <row r="6" spans="1:188" ht="12.75" customHeight="1">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="106"/>
+      <c r="AH6" s="107"/>
+      <c r="AI6" s="107"/>
+      <c r="AJ6" s="107"/>
+      <c r="AK6" s="107"/>
+      <c r="AL6" s="107"/>
+      <c r="AM6" s="107"/>
+      <c r="AN6" s="107"/>
+      <c r="AO6" s="107"/>
+      <c r="AP6" s="107"/>
+      <c r="AQ6" s="107"/>
+      <c r="AR6" s="108"/>
+    </row>
+    <row r="7" spans="1:188" ht="12.75" customHeight="1">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="106"/>
+      <c r="AH7" s="107"/>
+      <c r="AI7" s="107"/>
+      <c r="AJ7" s="107"/>
+      <c r="AK7" s="107"/>
+      <c r="AL7" s="107"/>
+      <c r="AM7" s="107"/>
+      <c r="AN7" s="107"/>
+      <c r="AO7" s="107"/>
+      <c r="AP7" s="107"/>
+      <c r="AQ7" s="107"/>
+      <c r="AR7" s="108"/>
+    </row>
+    <row r="8" spans="1:188" ht="12.75" customHeight="1">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="118" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH8" s="117"/>
+      <c r="AI8" s="117"/>
+      <c r="AJ8" s="117"/>
+      <c r="AK8" s="117"/>
+      <c r="AL8" s="117"/>
+      <c r="AM8" s="117"/>
+      <c r="AN8" s="117"/>
+      <c r="AO8" s="117"/>
+      <c r="AP8" s="117"/>
+      <c r="AQ8" s="117"/>
+      <c r="AR8" s="116"/>
+    </row>
+    <row r="9" spans="1:188" ht="12.75" customHeight="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="AF9" s="17"/>
+      <c r="AG9" s="118"/>
+      <c r="AH9" s="117"/>
+      <c r="AI9" s="117"/>
+      <c r="AJ9" s="117"/>
+      <c r="AK9" s="117"/>
+      <c r="AL9" s="117"/>
+      <c r="AM9" s="117"/>
+      <c r="AN9" s="117"/>
+      <c r="AO9" s="117"/>
+      <c r="AP9" s="117"/>
+      <c r="AQ9" s="117"/>
+      <c r="AR9" s="116"/>
+    </row>
+    <row r="10" spans="1:188" ht="12.75" customHeight="1">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="AF10" s="17"/>
+      <c r="AG10" s="118"/>
+      <c r="AH10" s="117"/>
+      <c r="AI10" s="117"/>
+      <c r="AJ10" s="117"/>
+      <c r="AK10" s="117"/>
+      <c r="AL10" s="117"/>
+      <c r="AM10" s="117"/>
+      <c r="AN10" s="117"/>
+      <c r="AO10" s="117"/>
+      <c r="AP10" s="117"/>
+      <c r="AQ10" s="117"/>
+      <c r="AR10" s="116"/>
+    </row>
+    <row r="11" spans="1:188" ht="12.75" customHeight="1">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="115" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH11" s="114"/>
+      <c r="AI11" s="114"/>
+      <c r="AJ11" s="114"/>
+      <c r="AK11" s="114"/>
+      <c r="AL11" s="114"/>
+      <c r="AM11" s="114"/>
+      <c r="AN11" s="114"/>
+      <c r="AO11" s="114"/>
+      <c r="AP11" s="114"/>
+      <c r="AQ11" s="114"/>
+      <c r="AR11" s="113"/>
+    </row>
+    <row r="12" spans="1:188" ht="12.75" customHeight="1">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="AF12" s="17"/>
+      <c r="AG12" s="115"/>
+      <c r="AH12" s="114"/>
+      <c r="AI12" s="114"/>
+      <c r="AJ12" s="114"/>
+      <c r="AK12" s="114"/>
+      <c r="AL12" s="114"/>
+      <c r="AM12" s="114"/>
+      <c r="AN12" s="114"/>
+      <c r="AO12" s="114"/>
+      <c r="AP12" s="114"/>
+      <c r="AQ12" s="114"/>
+      <c r="AR12" s="113"/>
+    </row>
+    <row r="13" spans="1:188" ht="12.75" customHeight="1">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="115"/>
+      <c r="AH13" s="114"/>
+      <c r="AI13" s="114"/>
+      <c r="AJ13" s="114"/>
+      <c r="AK13" s="114"/>
+      <c r="AL13" s="114"/>
+      <c r="AM13" s="114"/>
+      <c r="AN13" s="114"/>
+      <c r="AO13" s="114"/>
+      <c r="AP13" s="114"/>
+      <c r="AQ13" s="114"/>
+      <c r="AR13" s="113"/>
+    </row>
+    <row r="14" spans="1:188" ht="12.75" customHeight="1">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="15"/>
+      <c r="AG14" s="115" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH14" s="114"/>
+      <c r="AI14" s="114"/>
+      <c r="AJ14" s="114"/>
+      <c r="AK14" s="114"/>
+      <c r="AL14" s="114"/>
+      <c r="AM14" s="114"/>
+      <c r="AN14" s="114"/>
+      <c r="AO14" s="114"/>
+      <c r="AP14" s="114"/>
+      <c r="AQ14" s="114"/>
+      <c r="AR14" s="113"/>
+    </row>
+    <row r="15" spans="1:188" ht="12.75" customHeight="1">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="16"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="15"/>
+      <c r="AG15" s="115"/>
+      <c r="AH15" s="114"/>
+      <c r="AI15" s="114"/>
+      <c r="AJ15" s="114"/>
+      <c r="AK15" s="114"/>
+      <c r="AL15" s="114"/>
+      <c r="AM15" s="114"/>
+      <c r="AN15" s="114"/>
+      <c r="AO15" s="114"/>
+      <c r="AP15" s="114"/>
+      <c r="AQ15" s="114"/>
+      <c r="AR15" s="113"/>
+    </row>
+    <row r="16" spans="1:188" ht="12.75" customHeight="1">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="15"/>
+      <c r="AG16" s="115"/>
+      <c r="AH16" s="114"/>
+      <c r="AI16" s="114"/>
+      <c r="AJ16" s="114"/>
+      <c r="AK16" s="114"/>
+      <c r="AL16" s="114"/>
+      <c r="AM16" s="114"/>
+      <c r="AN16" s="114"/>
+      <c r="AO16" s="114"/>
+      <c r="AP16" s="114"/>
+      <c r="AQ16" s="114"/>
+      <c r="AR16" s="113"/>
+    </row>
+    <row r="17" spans="1:44" ht="12.75" customHeight="1">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="15"/>
+      <c r="AG17" s="112" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH17" s="111"/>
+      <c r="AI17" s="111"/>
+      <c r="AJ17" s="111"/>
+      <c r="AK17" s="111"/>
+      <c r="AL17" s="111"/>
+      <c r="AM17" s="111"/>
+      <c r="AN17" s="111"/>
+      <c r="AO17" s="111"/>
+      <c r="AP17" s="111"/>
+      <c r="AQ17" s="111"/>
+      <c r="AR17" s="110"/>
+    </row>
+    <row r="18" spans="1:44" ht="12.75" customHeight="1">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="15"/>
+      <c r="AG18" s="112"/>
+      <c r="AH18" s="111"/>
+      <c r="AI18" s="111"/>
+      <c r="AJ18" s="111"/>
+      <c r="AK18" s="111"/>
+      <c r="AL18" s="111"/>
+      <c r="AM18" s="111"/>
+      <c r="AN18" s="111"/>
+      <c r="AO18" s="111"/>
+      <c r="AP18" s="111"/>
+      <c r="AQ18" s="111"/>
+      <c r="AR18" s="110"/>
+    </row>
+    <row r="19" spans="1:44" ht="12.75" customHeight="1">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="16"/>
+      <c r="R19" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="15"/>
+      <c r="AG19" s="112"/>
+      <c r="AH19" s="111"/>
+      <c r="AI19" s="111"/>
+      <c r="AJ19" s="111"/>
+      <c r="AK19" s="111"/>
+      <c r="AL19" s="111"/>
+      <c r="AM19" s="111"/>
+      <c r="AN19" s="111"/>
+      <c r="AO19" s="111"/>
+      <c r="AP19" s="111"/>
+      <c r="AQ19" s="111"/>
+      <c r="AR19" s="110"/>
+    </row>
+    <row r="20" spans="1:44" ht="12.75" customHeight="1">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="AF20" s="17"/>
+      <c r="AK20" s="14"/>
+      <c r="AL20" s="14"/>
+      <c r="AM20" s="14"/>
+      <c r="AN20" s="14"/>
+      <c r="AO20" s="14"/>
+      <c r="AP20" s="14"/>
+      <c r="AQ20" s="14"/>
+      <c r="AR20" s="15"/>
+    </row>
+    <row r="21" spans="1:44" ht="12.75" customHeight="1">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="AF21" s="17"/>
+      <c r="AH21" s="49"/>
+      <c r="AK21" s="14"/>
+      <c r="AL21" s="14"/>
+      <c r="AM21" s="14"/>
+      <c r="AN21" s="14"/>
+      <c r="AO21" s="14"/>
+      <c r="AP21" s="14"/>
+      <c r="AQ21" s="14"/>
+      <c r="AR21" s="15"/>
+    </row>
+    <row r="22" spans="1:44" ht="12.75" customHeight="1">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="AF22" s="17"/>
+      <c r="AK22" s="14"/>
+      <c r="AL22" s="14"/>
+      <c r="AM22" s="14"/>
+      <c r="AN22" s="14"/>
+      <c r="AO22" s="14"/>
+      <c r="AP22" s="14"/>
+      <c r="AQ22" s="14"/>
+      <c r="AR22" s="15"/>
+    </row>
+    <row r="23" spans="1:44" ht="12.75" customHeight="1">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="AF23" s="17"/>
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="48"/>
+      <c r="AI23" s="14"/>
+      <c r="AJ23" s="14"/>
+      <c r="AK23" s="14"/>
+      <c r="AL23" s="14"/>
+      <c r="AM23" s="14"/>
+      <c r="AN23" s="14"/>
+      <c r="AO23" s="14"/>
+      <c r="AP23" s="14"/>
+      <c r="AQ23" s="14"/>
+      <c r="AR23" s="15"/>
+    </row>
+    <row r="24" spans="1:44" ht="12.75" customHeight="1">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="AF24" s="109"/>
+      <c r="AG24" s="14"/>
+      <c r="AH24" s="48"/>
+      <c r="AI24" s="14"/>
+      <c r="AJ24" s="14"/>
+      <c r="AK24" s="14"/>
+      <c r="AL24" s="14"/>
+      <c r="AM24" s="14"/>
+      <c r="AN24" s="14"/>
+      <c r="AO24" s="14"/>
+      <c r="AP24" s="14"/>
+      <c r="AQ24" s="14"/>
+      <c r="AR24" s="15"/>
+    </row>
+    <row r="25" spans="1:44" ht="12.75" customHeight="1">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="AF25" s="17"/>
+      <c r="AG25" s="14"/>
+      <c r="AH25" s="49"/>
+      <c r="AI25" s="14"/>
+      <c r="AJ25" s="14"/>
+      <c r="AK25" s="14"/>
+      <c r="AL25" s="14"/>
+      <c r="AM25" s="14"/>
+      <c r="AN25" s="14"/>
+      <c r="AO25" s="14"/>
+      <c r="AP25" s="14"/>
+      <c r="AQ25" s="14"/>
+      <c r="AR25" s="15"/>
+    </row>
+    <row r="26" spans="1:44" ht="12.75" customHeight="1">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="14"/>
+      <c r="AE26" s="14"/>
+      <c r="AF26" s="15"/>
+      <c r="AG26" s="14"/>
+      <c r="AH26" s="49"/>
+      <c r="AI26" s="14"/>
+      <c r="AJ26" s="14"/>
+      <c r="AK26" s="14"/>
+      <c r="AL26" s="14"/>
+      <c r="AM26" s="14"/>
+      <c r="AN26" s="14"/>
+      <c r="AO26" s="14"/>
+      <c r="AP26" s="14"/>
+      <c r="AQ26" s="14"/>
+      <c r="AR26" s="15"/>
+    </row>
+    <row r="27" spans="1:44" ht="12.75" customHeight="1">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="14"/>
+      <c r="AE27" s="14"/>
+      <c r="AF27" s="15"/>
+      <c r="AG27" s="14"/>
+      <c r="AH27" s="48"/>
+      <c r="AI27" s="14"/>
+      <c r="AJ27" s="14"/>
+      <c r="AK27" s="14"/>
+      <c r="AL27" s="14"/>
+      <c r="AM27" s="14"/>
+      <c r="AN27" s="14"/>
+      <c r="AO27" s="14"/>
+      <c r="AP27" s="14"/>
+      <c r="AQ27" s="14"/>
+      <c r="AR27" s="15"/>
+    </row>
+    <row r="28" spans="1:44" ht="12.75" customHeight="1">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="14"/>
+      <c r="AC28" s="14"/>
+      <c r="AD28" s="14"/>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="15"/>
+      <c r="AG28" s="14"/>
+      <c r="AH28" s="48"/>
+      <c r="AI28" s="14"/>
+      <c r="AJ28" s="14"/>
+      <c r="AK28" s="14"/>
+      <c r="AL28" s="14"/>
+      <c r="AM28" s="14"/>
+      <c r="AN28" s="14"/>
+      <c r="AO28" s="14"/>
+      <c r="AP28" s="14"/>
+      <c r="AQ28" s="14"/>
+      <c r="AR28" s="15"/>
+    </row>
+    <row r="29" spans="1:44" ht="12.75" customHeight="1">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="14"/>
+      <c r="AC29" s="14"/>
+      <c r="AD29" s="14"/>
+      <c r="AE29" s="14"/>
+      <c r="AF29" s="15"/>
+      <c r="AG29" s="14"/>
+      <c r="AH29" s="48"/>
+      <c r="AI29" s="14"/>
+      <c r="AJ29" s="14"/>
+      <c r="AK29" s="14"/>
+      <c r="AL29" s="14"/>
+      <c r="AM29" s="14"/>
+      <c r="AN29" s="14"/>
+      <c r="AO29" s="14"/>
+      <c r="AP29" s="14"/>
+      <c r="AQ29" s="14"/>
+      <c r="AR29" s="15"/>
+    </row>
+    <row r="30" spans="1:44" ht="12.75" customHeight="1">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="14"/>
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="14"/>
+      <c r="AE30" s="14"/>
+      <c r="AF30" s="15"/>
+      <c r="AG30" s="14"/>
+      <c r="AH30" s="48"/>
+      <c r="AI30" s="14"/>
+      <c r="AJ30" s="14"/>
+      <c r="AK30" s="14"/>
+      <c r="AL30" s="14"/>
+      <c r="AM30" s="14"/>
+      <c r="AN30" s="14"/>
+      <c r="AO30" s="14"/>
+      <c r="AP30" s="14"/>
+      <c r="AQ30" s="14"/>
+      <c r="AR30" s="15"/>
+    </row>
+    <row r="31" spans="1:44" ht="12.75" customHeight="1">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="14"/>
+      <c r="AC31" s="14"/>
+      <c r="AD31" s="14"/>
+      <c r="AE31" s="14"/>
+      <c r="AF31" s="15"/>
+      <c r="AG31" s="14"/>
+      <c r="AH31" s="48"/>
+      <c r="AI31" s="14"/>
+      <c r="AJ31" s="14"/>
+      <c r="AK31" s="14"/>
+      <c r="AL31" s="14"/>
+      <c r="AM31" s="14"/>
+      <c r="AN31" s="14"/>
+      <c r="AO31" s="14"/>
+      <c r="AP31" s="14"/>
+      <c r="AQ31" s="14"/>
+      <c r="AR31" s="15"/>
+    </row>
+    <row r="32" spans="1:44" ht="12.75" customHeight="1">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="14"/>
+      <c r="AC32" s="14"/>
+      <c r="AD32" s="14"/>
+      <c r="AE32" s="14"/>
+      <c r="AF32" s="15"/>
+      <c r="AG32" s="14"/>
+      <c r="AH32" s="48"/>
+      <c r="AI32" s="14"/>
+      <c r="AJ32" s="14"/>
+      <c r="AK32" s="14"/>
+      <c r="AL32" s="14"/>
+      <c r="AM32" s="14"/>
+      <c r="AN32" s="14"/>
+      <c r="AO32" s="14"/>
+      <c r="AP32" s="14"/>
+      <c r="AQ32" s="14"/>
+      <c r="AR32" s="15"/>
+    </row>
+    <row r="33" spans="1:44" ht="12.75" customHeight="1">
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="14"/>
+      <c r="AC33" s="14"/>
+      <c r="AD33" s="14"/>
+      <c r="AE33" s="14"/>
+      <c r="AF33" s="15"/>
+      <c r="AG33" s="14"/>
+      <c r="AH33" s="14"/>
+      <c r="AI33" s="14"/>
+      <c r="AJ33" s="14"/>
+      <c r="AK33" s="14"/>
+      <c r="AL33" s="14"/>
+      <c r="AM33" s="14"/>
+      <c r="AN33" s="14"/>
+      <c r="AO33" s="14"/>
+      <c r="AP33" s="14"/>
+      <c r="AQ33" s="14"/>
+      <c r="AR33" s="15"/>
+    </row>
+    <row r="34" spans="1:44" ht="12.75" customHeight="1">
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
+      <c r="X34" s="14"/>
+      <c r="Y34" s="14"/>
+      <c r="Z34" s="14"/>
+      <c r="AA34" s="14"/>
+      <c r="AB34" s="14"/>
+      <c r="AC34" s="14"/>
+      <c r="AD34" s="14"/>
+      <c r="AE34" s="14"/>
+      <c r="AF34" s="15"/>
+      <c r="AG34" s="14"/>
+      <c r="AI34" s="14"/>
+      <c r="AJ34" s="14"/>
+      <c r="AK34" s="14"/>
+      <c r="AL34" s="14"/>
+      <c r="AM34" s="14"/>
+      <c r="AN34" s="14"/>
+      <c r="AO34" s="14"/>
+      <c r="AP34" s="14"/>
+      <c r="AQ34" s="14"/>
+      <c r="AR34" s="15"/>
+    </row>
+    <row r="35" spans="1:44" ht="12.75" customHeight="1">
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="14"/>
+      <c r="AC35" s="14"/>
+      <c r="AD35" s="14"/>
+      <c r="AE35" s="14"/>
+      <c r="AF35" s="15"/>
+      <c r="AG35" s="16"/>
+      <c r="AH35" s="16"/>
+      <c r="AI35" s="14"/>
+      <c r="AJ35" s="14"/>
+      <c r="AK35" s="14"/>
+      <c r="AL35" s="14"/>
+      <c r="AM35" s="14"/>
+      <c r="AN35" s="14"/>
+      <c r="AO35" s="14"/>
+      <c r="AP35" s="14"/>
+      <c r="AQ35" s="14"/>
+      <c r="AR35" s="15"/>
+    </row>
+    <row r="36" spans="1:44" ht="12.75" customHeight="1">
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="14"/>
+      <c r="X36" s="14"/>
+      <c r="Y36" s="14"/>
+      <c r="Z36" s="14"/>
+      <c r="AA36" s="14"/>
+      <c r="AB36" s="14"/>
+      <c r="AC36" s="14"/>
+      <c r="AD36" s="14"/>
+      <c r="AE36" s="14"/>
+      <c r="AF36" s="15"/>
+      <c r="AG36" s="14"/>
+      <c r="AH36" s="14"/>
+      <c r="AI36" s="14"/>
+      <c r="AJ36" s="14"/>
+      <c r="AK36" s="14"/>
+      <c r="AL36" s="14"/>
+      <c r="AM36" s="14"/>
+      <c r="AN36" s="14"/>
+      <c r="AO36" s="14"/>
+      <c r="AP36" s="14"/>
+      <c r="AQ36" s="14"/>
+      <c r="AR36" s="15"/>
+    </row>
+    <row r="37" spans="1:44" ht="12.75" customHeight="1">
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="14"/>
+      <c r="X37" s="14"/>
+      <c r="Y37" s="14"/>
+      <c r="Z37" s="14"/>
+      <c r="AA37" s="14"/>
+      <c r="AB37" s="14"/>
+      <c r="AC37" s="14"/>
+      <c r="AD37" s="14"/>
+      <c r="AE37" s="14"/>
+      <c r="AF37" s="15"/>
+      <c r="AG37" s="14"/>
+      <c r="AH37" s="14"/>
+      <c r="AI37" s="14"/>
+      <c r="AJ37" s="14"/>
+      <c r="AK37" s="14"/>
+      <c r="AL37" s="14"/>
+      <c r="AM37" s="14"/>
+      <c r="AN37" s="14"/>
+      <c r="AO37" s="14"/>
+      <c r="AP37" s="14"/>
+      <c r="AQ37" s="14"/>
+      <c r="AR37" s="15"/>
+    </row>
+    <row r="38" spans="1:44" ht="12.75" customHeight="1">
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="AF38" s="17"/>
+      <c r="AK38" s="14"/>
+      <c r="AL38" s="14"/>
+      <c r="AM38" s="14"/>
+      <c r="AN38" s="14"/>
+      <c r="AO38" s="14"/>
+      <c r="AP38" s="14"/>
+      <c r="AQ38" s="14"/>
+      <c r="AR38" s="15"/>
+    </row>
+    <row r="39" spans="1:44" ht="12.75" customHeight="1">
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="AF39" s="17"/>
+      <c r="AK39" s="14"/>
+      <c r="AL39" s="14"/>
+      <c r="AM39" s="14"/>
+      <c r="AN39" s="14"/>
+      <c r="AO39" s="14"/>
+      <c r="AP39" s="14"/>
+      <c r="AQ39" s="14"/>
+      <c r="AR39" s="15"/>
+    </row>
+    <row r="40" spans="1:44" ht="12.75" customHeight="1">
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="AF40" s="17"/>
+      <c r="AK40" s="14"/>
+      <c r="AL40" s="14"/>
+      <c r="AM40" s="14"/>
+      <c r="AN40" s="14"/>
+      <c r="AO40" s="14"/>
+      <c r="AP40" s="14"/>
+      <c r="AQ40" s="14"/>
+      <c r="AR40" s="15"/>
+    </row>
+    <row r="41" spans="1:44" ht="12.75" customHeight="1">
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="AF41" s="17"/>
+      <c r="AK41" s="14"/>
+      <c r="AL41" s="14"/>
+      <c r="AM41" s="14"/>
+      <c r="AN41" s="14"/>
+      <c r="AO41" s="14"/>
+      <c r="AP41" s="14"/>
+      <c r="AQ41" s="14"/>
+      <c r="AR41" s="15"/>
+    </row>
+    <row r="42" spans="1:44" ht="12.75" customHeight="1">
+      <c r="A42" s="13"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="AF42" s="17"/>
+      <c r="AK42" s="14"/>
+      <c r="AL42" s="14"/>
+      <c r="AM42" s="14"/>
+      <c r="AN42" s="14"/>
+      <c r="AO42" s="14"/>
+      <c r="AP42" s="14"/>
+      <c r="AQ42" s="14"/>
+      <c r="AR42" s="15"/>
+    </row>
+    <row r="43" spans="1:44" ht="12.75" customHeight="1">
+      <c r="A43" s="13"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="AF43" s="17"/>
+      <c r="AK43" s="14"/>
+      <c r="AL43" s="14"/>
+      <c r="AM43" s="14"/>
+      <c r="AN43" s="14"/>
+      <c r="AO43" s="14"/>
+      <c r="AP43" s="14"/>
+      <c r="AQ43" s="14"/>
+      <c r="AR43" s="15"/>
+    </row>
+    <row r="44" spans="1:44" ht="12.75" customHeight="1">
+      <c r="A44" s="13"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="AF44" s="17"/>
+      <c r="AK44" s="14"/>
+      <c r="AL44" s="14"/>
+      <c r="AM44" s="14"/>
+      <c r="AN44" s="14"/>
+      <c r="AO44" s="14"/>
+      <c r="AP44" s="14"/>
+      <c r="AQ44" s="14"/>
+      <c r="AR44" s="15"/>
+    </row>
+    <row r="45" spans="1:44" ht="12.75" customHeight="1">
+      <c r="H45" s="24"/>
+      <c r="AF45" s="17"/>
+      <c r="AR45" s="28"/>
+    </row>
+    <row r="46" spans="1:44" ht="12.75" customHeight="1">
+      <c r="H46" s="24"/>
+      <c r="AF46" s="17"/>
+      <c r="AR46" s="28"/>
+    </row>
+    <row r="47" spans="1:44" ht="12.75" customHeight="1">
+      <c r="H47" s="24"/>
+      <c r="AF47" s="17"/>
+      <c r="AR47" s="28"/>
+    </row>
+    <row r="48" spans="1:44" ht="12.75" customHeight="1">
+      <c r="H48" s="24"/>
+      <c r="AF48" s="17"/>
+      <c r="AR48" s="28"/>
+    </row>
+    <row r="49" spans="1:44" ht="12.75" customHeight="1">
+      <c r="H49" s="24"/>
+      <c r="AF49" s="17"/>
+      <c r="AR49" s="28"/>
+    </row>
+    <row r="50" spans="1:44" ht="12.75" customHeight="1">
+      <c r="H50" s="24"/>
+      <c r="AF50" s="17"/>
+      <c r="AR50" s="28"/>
+    </row>
+    <row r="51" spans="1:44" ht="12.75" customHeight="1">
+      <c r="H51" s="24"/>
+      <c r="AF51" s="17"/>
+      <c r="AR51" s="28"/>
+    </row>
+    <row r="52" spans="1:44" ht="12.75" customHeight="1">
+      <c r="H52" s="24"/>
+      <c r="AF52" s="17"/>
+      <c r="AR52" s="28"/>
+    </row>
+    <row r="53" spans="1:44" ht="12.75" customHeight="1">
+      <c r="H53" s="24"/>
+      <c r="AF53" s="17"/>
+      <c r="AR53" s="28"/>
+    </row>
+    <row r="54" spans="1:44" ht="12.75" customHeight="1">
+      <c r="H54" s="24"/>
+      <c r="AF54" s="17"/>
+      <c r="AR54" s="28"/>
+    </row>
+    <row r="55" spans="1:44" ht="12.75" customHeight="1">
+      <c r="H55" s="24"/>
+      <c r="AF55" s="17"/>
+      <c r="AR55" s="28"/>
+    </row>
+    <row r="56" spans="1:44" ht="12.75" customHeight="1">
+      <c r="H56" s="24"/>
+      <c r="AF56" s="17"/>
+      <c r="AR56" s="28"/>
+    </row>
+    <row r="57" spans="1:44" ht="12.75" customHeight="1">
+      <c r="H57" s="24"/>
+      <c r="AF57" s="17"/>
+      <c r="AR57" s="28"/>
+    </row>
+    <row r="58" spans="1:44" ht="12.75" customHeight="1">
+      <c r="H58" s="24"/>
+      <c r="AF58" s="17"/>
+      <c r="AR58" s="28"/>
+    </row>
+    <row r="59" spans="1:44" ht="12.75" customHeight="1">
+      <c r="H59" s="24"/>
+      <c r="AF59" s="17"/>
+      <c r="AR59" s="28"/>
+    </row>
+    <row r="60" spans="1:44" ht="12.75" customHeight="1">
+      <c r="H60" s="24"/>
+      <c r="AF60" s="17"/>
+      <c r="AR60" s="28"/>
+    </row>
+    <row r="61" spans="1:44" ht="12.75" customHeight="1">
+      <c r="H61" s="24"/>
+      <c r="AF61" s="17"/>
+      <c r="AR61" s="28"/>
+    </row>
+    <row r="62" spans="1:44" ht="12.75" customHeight="1">
+      <c r="H62" s="24"/>
+      <c r="AF62" s="17"/>
+      <c r="AR62" s="28"/>
+    </row>
+    <row r="63" spans="1:44" ht="12.75" customHeight="1">
+      <c r="A63" s="26"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="52"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="26"/>
+      <c r="L63" s="26"/>
+      <c r="M63" s="26"/>
+      <c r="N63" s="26"/>
+      <c r="O63" s="26"/>
+      <c r="P63" s="26"/>
+      <c r="Q63" s="26"/>
+      <c r="R63" s="26"/>
+      <c r="S63" s="26"/>
+      <c r="T63" s="26"/>
+      <c r="U63" s="26"/>
+      <c r="V63" s="26"/>
+      <c r="W63" s="26"/>
+      <c r="X63" s="26"/>
+      <c r="Y63" s="26"/>
+      <c r="Z63" s="26"/>
+      <c r="AA63" s="26"/>
+      <c r="AB63" s="26"/>
+      <c r="AC63" s="26"/>
+      <c r="AD63" s="26"/>
+      <c r="AE63" s="26"/>
+      <c r="AF63" s="27"/>
+      <c r="AG63" s="26"/>
+      <c r="AH63" s="26"/>
+      <c r="AI63" s="26"/>
+      <c r="AJ63" s="26"/>
+      <c r="AK63" s="26"/>
+      <c r="AL63" s="26"/>
+      <c r="AM63" s="26"/>
+      <c r="AN63" s="26"/>
+      <c r="AO63" s="26"/>
+      <c r="AP63" s="54"/>
+      <c r="AQ63" s="54"/>
+      <c r="AR63" s="57"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="AG11:AR13"/>
+    <mergeCell ref="AG14:AR16"/>
+    <mergeCell ref="AG17:AR19"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="H4:AF4"/>
+    <mergeCell ref="AG4:AR4"/>
+    <mergeCell ref="AG5:AR7"/>
+    <mergeCell ref="AG8:AR10"/>
+    <mergeCell ref="AK3:AN3"/>
+    <mergeCell ref="AO3:AR3"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:AJ2"/>
+    <mergeCell ref="AK2:AN2"/>
+    <mergeCell ref="AO2:AR2"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>